--- a/Base/Teams/Chargers/2021 Team Data.xlsx
+++ b/Base/Teams/Chargers/2021 Team Data.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24527"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/136736bc97bfa800/Robbie/Football/nfl-simulation-app/Base/Teams/Chargers/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="1" documentId="11_11EB5B2B507EE88EFE54ED404D5BD2A6CB8A0A85" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F8E6F46D-8E3F-4264-B516-59D70C73AF7C}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="YDS" sheetId="1" r:id="rId1"/>
@@ -16,7 +22,7 @@
     <sheet name="TURNS" sheetId="7" r:id="rId7"/>
     <sheet name="PEN" sheetId="8" r:id="rId8"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
@@ -35,16 +41,16 @@
     <t>P</t>
   </si>
   <si>
-    <t>11 13 3 3 1 7 -3 1 4 3 2 0 7 2 2 0 14 5 2 3 0 4 1 2 9 -3 20 -1 16 1 3 1 5 1 0 5 1 9 5 3 9 3 7 4 1 4 -1 9 1 2 3 3 5 -2 -1 5 9 1 -1 11 6 9 6 0 8 7 -1 18 -1 0 3 5 21 5 3 -3 8 2 11 6 4 8 0 2 2 4 1 7 6 9 1 6 11 20 4 3 -2 2 8 11 2 3 10 5 2 14 3 1 9 2 6 2 4 1 4 4 8 -1 4 2 5 2 10 -2 2 1 3 -2 6 3 5 3 10 75 3 3 1 9 3 2 28 4 2 2 3 0 3 1 3 7 3 0 2 2 0 9 -3 0 1 1 5 -1 1 14 8 10 2 1 0 16 5 4 5 1 0 4 3 17 1 1 3 5 5 9 2 6 3 3 5 4 2 3 7 6 10 4 0 18 2 18 2 12 6 -2 13 4 5 2 5 36 5 1 1 7 5 6 3 3 5 1 5 -1 2 13 5 2 1 13</t>
-  </si>
-  <si>
-    <t>10 6 9 11 -3 7 2 11 4 18 16 10 22 1 6 17 4 17 11 7 11 23 6 19 17 3 17 7 19 20 9 22 11 7 0 5 14 -2 12 9 27 12 14 8 -1 6 10 7 8 42 8 -2 5 7 16 8 20 4 2 15 30 14 0 4 3 8 8 11 19 4 20 8 6 16 5 12 7 21 11 5 0 20 43 15 6 16 4 5 4 22 7 7 4 3 5 5 11 34 0 10 2 9 4 7 13 9 14 9 15 4 4 18 6 8 22 72 8 -1 7 7 7 7 13 5 14 42 10 5 4 37 21 3 19 29 11 11 8 3 18 7 5 8 26 1 16 1 5 10 21 15 -1 5 4 5 10 6 12 41 6 1 13 5 5 9 11 11 15 14 7 6 18 11 14 24 19 12 9 17 23 9 23 2 12 15 3 1 4 11 9 16 15 19 49 8 8 -2 7 3 8 18 3 14 4 5 11 7 11 10 18 2 7 8 5 4 22 17 11 10 2 7 7 26 13 6 2 2 22 5 11 6 17 5 7 10 18 10 14 9 10 18 6 30 14 17 8 5 7 17 3 11 12 13 5 17 53 7 24 -2 10 5 9 13 6 18 14 12 9 11 13 17 8 8 4 2 7 13 18 34 9 5 -2 16</t>
-  </si>
-  <si>
-    <t>4 4 27 -3 2 3 6 -1 8 3 5 6 2 6 6 6 6 3 0 -2 0 6 4 5 2 5 9 1 10 1 1 3 5 -2 5 4 8 16 6 13 5 6 4 5 5 6 19 5 28 3 23 3 1 -1 5 4 3 3 4 12 10 4 11 7 8 7 3 4 7 5 14 10 4 2 3 8 4 2 18 2 12 7 5 7 4 -1 2 2 21 2 1 5 3 -1 5 4 0 2 2 10 1 2 0 6 2 1 3 20 13 -1 12 0 9 7 5 5 -5 1 8 6 2 6 -1 7 5 8 1 0 3 6 52 4 1 1 1 8 24 7 8 1 3 8 6 16 6 1 11 14 3 3 22 2 3 5 5 7 3 6 1 5 4 1 7 2 2 0 -3 5 7 3 0 9 -1 9 3 2 12 3 -1 3 4 1 8 5 6 5 6 3 7 4 7 5 2 6 10 4 6 5 4 -2 6 3 2 14 -1 6 3 2 0 1 0 1 1 2 3 0 3 8 18 4 2 5 4 2 1 4 6 8 5 4 5 3 5 6 2 3 10 2 2 3 3 0 5 2 12 2 1 10 2 4 6 0 11 5 3 -4 12 6 6 8 5 5 3 4 7 4 -3 5 -1 3 1 4 0 2 7 0 1 5 2 4 1 11 1 4 2 4 3 6 4 3 5 2 3 0 12 4 0 3 -2 1 12 2 10 2 4 2 4 2 -2 11 12 8 16 -1 9 1 2 2 6 6 2 2 0 3 0 7 4 3 8 4 4 3</t>
-  </si>
-  <si>
-    <t>2 6 5 12 7 11 9 2 34 11 17 17 -2 4 6 7 6 20 7 17 12 10 13 5 16 10 34 4 13 -4 1 11 7 7 5 12 4 7 15 5 6 6 8 17 -1 5 15 28 7 6 11 12 8 10 2 6 23 18 10 5 5 7 11 8 4 3 12 5 21 7 0 15 8 8 5 10 9 18 3 51 5 5 4 9 22 31 12 7 42 1 2 5 16 9 6 8 13 11 -1 7 71 13 6 3 2 10 7 4 4 8 16 8 9 21 1 10 6 4 11 9 8 20 13 6 1 14 44 2 5 11 33 7 10 4 15 7 14 2 7 17 15 9 2 2 18 27 7 23 19 21 -6 19 4 28 14 6 -1 10 24 7 7 9 3 18 21 21 5 4 27 19 3 12 15 16 3 27 5 18 8 4 16 0 8 37 22 7 9 10 2 2 6 28 5 7 1 5 16 4 5 32 18 4 5 5 7 3 13 19 5 7 12 7 5 2 12 1 12 14 42 1</t>
+    <t>11 13 3 3 1 7 -3 1 4 3 2 0 7 2 2 0 14 5 2 3 0 4 1 2 9 -3 20 -1 16 1 3 1 5 1 0 5 1 9 5 3 9 3 7 4 1 4 -1 9 1 2 3 3 5 -2 -1 5 9 1 -1 11 6 9 6 0 8 7 -1 18 -1 0 3 5 21 5 3 -3 8 2 11 6 4 8 0 2 2 4 1 7 6 9 1 6 11 20 4 3 -2 2 8 11 2 3 10 5 2 14 3 1 9 2 6 2 4 1 4 4 8 -1 4 2 5 2 10 -2 2 1 3 -2 6 3 5 3 10 75 3 3 1 9 3 2 28 4 2 2 3 0 3 1 3 7 3 0 2 2 0 9 -3 0 1 1 5 -1 1 14 8 10 2 1 0 16 5 4 5 1 0 4 3 17 1 1 3 5 5 9 2 6 3 3 5 4 2 3 7 6 10 4 0 18 2 18 2 12 6 -2 13 4 5 2 5 36 5 1 1 7 5 6 3 3 5 1 5 -1 2 13 5 2 1 13 2 0 -1 6 7 3 9 5 0 2 5 4 1 15 1 5 6 1 3 -4 7 2</t>
+  </si>
+  <si>
+    <t>10 6 9 11 -3 7 2 11 4 18 16 10 22 1 6 17 4 17 11 7 11 23 6 19 17 3 17 7 19 20 9 22 11 7 0 5 14 -2 12 9 27 12 14 8 -1 6 10 7 8 42 8 -2 5 7 16 8 20 4 2 15 30 14 0 4 3 8 8 11 19 4 20 8 6 16 5 12 7 21 11 5 0 20 43 15 6 16 4 5 4 22 7 7 4 3 5 5 11 34 0 10 2 9 4 7 13 9 14 9 15 4 4 18 6 8 22 72 8 -1 7 7 7 7 13 5 14 42 10 5 4 37 21 3 19 29 11 11 8 3 18 7 5 8 26 1 16 1 5 10 21 15 -1 5 4 5 10 6 12 41 6 1 13 5 5 9 11 11 15 14 7 6 18 11 14 24 19 12 9 17 23 9 23 2 12 15 3 1 4 11 9 16 15 19 49 8 8 -2 7 3 8 18 3 14 4 5 11 7 11 10 18 2 7 8 5 4 22 17 11 10 2 7 7 26 13 6 2 2 22 5 11 6 17 5 7 10 18 10 14 9 10 18 6 30 14 17 8 5 7 17 3 11 12 13 5 17 53 7 24 -2 10 5 9 13 6 18 14 12 9 11 13 17 8 8 4 2 7 13 18 34 9 5 -2 16 -1 10 -1 41 5 10 47 6 7 44 23 7 4 7 12 7 12 9 7 6 -3 1 18 33 2</t>
+  </si>
+  <si>
+    <t>4 4 27 -3 2 3 6 -1 8 3 5 6 2 6 6 6 6 3 0 -2 0 6 4 5 2 5 9 1 10 1 1 3 5 -2 5 4 8 16 6 13 5 6 4 5 5 6 19 5 28 3 23 3 1 -1 5 4 3 3 4 12 10 4 11 7 8 7 3 4 7 5 14 10 4 2 3 8 4 2 18 2 12 7 5 7 4 -1 2 2 21 2 1 5 3 -1 5 4 0 2 2 10 1 2 0 6 2 1 3 20 13 -1 12 0 9 7 5 5 -5 1 8 6 2 6 -1 7 5 8 1 0 3 6 52 4 1 1 1 8 24 7 8 1 3 8 6 16 6 1 11 14 3 3 22 2 3 5 5 7 3 6 1 5 4 1 7 2 2 0 -3 5 7 3 0 9 -1 9 3 2 12 3 -1 3 4 1 8 5 6 5 6 3 7 4 7 5 2 6 10 4 6 5 4 -2 6 3 2 14 -1 6 3 2 0 1 0 1 1 2 3 0 3 8 18 4 2 5 4 2 1 4 6 8 5 4 5 3 5 6 2 3 10 2 2 3 3 0 5 2 12 2 1 10 2 4 6 0 11 5 3 -4 12 6 6 8 5 5 3 4 7 4 -3 5 -1 3 1 4 0 2 7 0 1 5 2 4 1 11 1 4 2 4 3 6 4 3 5 2 3 0 12 4 0 3 -2 1 12 2 10 2 4 2 4 2 -2 11 12 8 16 -1 9 1 2 2 6 6 2 2 0 3 0 7 4 3 8 4 4 3 0 2 2 7 1 -5 6 8 6 2 6 17 2 5 3 4 0 10 3 3 8 -3 5 10</t>
+  </si>
+  <si>
+    <t>2 6 5 12 7 11 9 2 34 11 17 17 -2 4 6 7 6 20 7 17 12 10 13 5 16 10 34 4 13 -4 1 11 7 7 5 12 4 7 15 5 6 6 8 17 -1 5 15 28 7 6 11 12 8 10 2 6 23 18 10 5 5 7 11 8 4 3 12 5 21 7 0 15 8 8 5 10 9 18 3 51 5 5 4 9 22 31 12 7 42 1 2 5 16 9 6 8 13 11 -1 7 71 13 6 3 2 10 7 4 4 8 16 8 9 21 1 10 6 4 11 9 8 20 13 6 1 14 44 2 5 11 33 7 10 4 15 7 14 2 7 17 15 9 2 2 18 27 7 23 19 21 -6 19 4 28 14 6 -1 10 24 7 7 9 3 18 21 21 5 4 27 19 3 12 15 16 3 27 5 18 8 4 16 0 8 37 22 7 9 10 2 2 6 28 5 7 1 5 16 4 5 32 18 4 5 5 7 3 13 19 5 7 12 7 5 2 12 1 12 14 42 1 5 12 21 3 9 7 32 16 29 5 7 0 5 9 20 12 6 9 11 12 16 14 25 14 10</t>
   </si>
   <si>
     <t>1N11+</t>
@@ -161,22 +167,19 @@
     <t>RM</t>
   </si>
   <si>
-    <t>55 64 64 67 65 66 67 60 64 66 65 67 69 66 59 62 61 64 69 62 67 62 64 59 65 49</t>
-  </si>
-  <si>
-    <t>16 31 18 24 23 24 30 25 15 31 22 30 24 28 16 11 23 47 26 24 17 19 23 30 33 7</t>
-  </si>
-  <si>
-    <t>19 23 17 20 24 11 14 13 15 16 16 18 16 36 10 17 25 29 19 29 39 14 23 22</t>
-  </si>
-  <si>
-    <t>47 47 55 24 40 53 48 58 35 39 32 63 55 41 37 69 53 57 46 52 50 49 41 50 39 59 32 35 59 57 50 48 43 45</t>
-  </si>
-  <si>
-    <t>14 8 17 0 0 7 0 17 0 5 6 0 9 8 0 14 13 17 0 21 22 10 0 27 0 45 0 0 7 17 14 8 0 5</t>
-  </si>
-  <si>
-    <t>0 3 0 6 0 11 0 0 9 0 0 0 12 0 0 0 0 12 0 10 0 9 14 13 -1 0 0 0</t>
+    <t>55 64 64 67 65 66 67 60 64 66 65 67 69 66 59 62 61 64 69 62 67 62 64 59 65 49 66 63 62</t>
+  </si>
+  <si>
+    <t>16 31 18 24 23 24 30 25 15 31 22 30 24 28 16 11 23 47 26 24 17 19 23 30 33 7 17 10 25</t>
+  </si>
+  <si>
+    <t>19 23 17 20 24 11 14 13 15 16 16 18 16 36 10 17 25 29 19 29 39 14 23 22 48 24 27</t>
+  </si>
+  <si>
+    <t>47 47 55 24 40 53 48 58 35 39 32 63 55 41 37 69 53 57 46 52 50 49 41 50 39 59 32 35 59 57 50 48 43 45 39 49 45 36</t>
+  </si>
+  <si>
+    <t>14 8 17 0 0 7 0 17 0 5 6 0 9 8 0 14 13 17 0 21 22 10 0 27 0 45 0 0 7 17 14 8 0 5 0 5 0 0</t>
   </si>
   <si>
     <t>INT</t>
@@ -204,13 +207,16 @@
   </si>
   <si>
     <t>Offside</t>
+  </si>
+  <si>
+    <t>0 0</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -273,6 +279,14 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -319,7 +333,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -351,9 +365,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -385,6 +417,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -560,14 +610,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -575,7 +625,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
@@ -586,7 +636,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>3</v>
       </c>
@@ -603,14 +653,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:Q3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="B1" s="1" t="s">
         <v>8</v>
       </c>
@@ -660,7 +710,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:17">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>24</v>
       </c>
@@ -668,28 +718,28 @@
         <v>1</v>
       </c>
       <c r="C2">
-        <v>115</v>
+        <v>126</v>
       </c>
       <c r="D2">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="E2">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F2">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="G2">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="H2">
         <v>3</v>
       </c>
       <c r="I2">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="J2">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="K2" t="s">
         <v>25</v>
@@ -701,57 +751,57 @@
         <v>150</v>
       </c>
       <c r="N2">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="O2">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="P2">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="Q2">
         <v>379</v>
       </c>
     </row>
-    <row r="3" spans="1:17">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>18</v>
       </c>
       <c r="B3">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C3">
-        <v>142</v>
+        <v>155</v>
       </c>
       <c r="D3">
         <v>2</v>
       </c>
       <c r="E3">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="F3">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="G3">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="H3">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="I3">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="J3">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="K3" t="s">
         <v>26</v>
       </c>
       <c r="L3">
-        <v>205</v>
+        <v>240</v>
       </c>
       <c r="M3">
-        <v>139</v>
+        <v>165</v>
       </c>
       <c r="N3">
         <v>13</v>
@@ -763,7 +813,7 @@
         <v>17</v>
       </c>
       <c r="Q3">
-        <v>316</v>
+        <v>380</v>
       </c>
     </row>
   </sheetData>
@@ -772,14 +822,14 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:J3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B1" s="1" t="s">
         <v>8</v>
       </c>
@@ -808,7 +858,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:10">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>24</v>
       </c>
@@ -840,7 +890,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:10">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>18</v>
       </c>
@@ -878,14 +928,14 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:Q3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="B1" s="1" t="s">
         <v>8</v>
       </c>
@@ -935,7 +985,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:17">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>24</v>
       </c>
@@ -943,19 +993,19 @@
         <v>2</v>
       </c>
       <c r="C2">
-        <v>160</v>
+        <v>174</v>
       </c>
       <c r="D2">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E2">
         <v>7</v>
       </c>
       <c r="F2">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="G2">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="H2">
         <v>3</v>
@@ -976,10 +1026,10 @@
         <v>138</v>
       </c>
       <c r="N2">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="O2">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="P2">
         <v>5</v>
@@ -988,45 +1038,45 @@
         <v>392</v>
       </c>
     </row>
-    <row r="3" spans="1:17">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>18</v>
       </c>
       <c r="B3">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C3">
-        <v>103</v>
+        <v>118</v>
       </c>
       <c r="D3">
         <v>3</v>
       </c>
       <c r="E3">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="F3">
-        <v>55</v>
+        <v>64</v>
       </c>
       <c r="G3">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="H3">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="I3">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="J3">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="K3" t="s">
         <v>26</v>
       </c>
       <c r="L3">
-        <v>133</v>
+        <v>174</v>
       </c>
       <c r="M3">
-        <v>86</v>
+        <v>111</v>
       </c>
       <c r="N3">
         <v>13</v>
@@ -1038,7 +1088,7 @@
         <v>17</v>
       </c>
       <c r="Q3">
-        <v>307</v>
+        <v>382</v>
       </c>
     </row>
   </sheetData>
@@ -1047,14 +1097,14 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:J3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B1" s="1" t="s">
         <v>8</v>
       </c>
@@ -1083,7 +1133,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:10">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>24</v>
       </c>
@@ -1115,7 +1165,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:10">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>18</v>
       </c>
@@ -1153,14 +1203,16 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:Q6"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="B1" s="1" t="s">
         <v>27</v>
       </c>
@@ -1210,33 +1262,33 @@
         <v>40</v>
       </c>
     </row>
-    <row r="2" spans="1:17">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>41</v>
       </c>
       <c r="B2">
-        <v>56</v>
+        <v>64</v>
       </c>
       <c r="C2" t="s">
         <v>41</v>
       </c>
       <c r="D2">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="E2" t="s">
         <v>17</v>
       </c>
       <c r="F2">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="G2">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="H2">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="I2">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J2">
         <v>103</v>
@@ -1245,10 +1297,10 @@
         <v>98</v>
       </c>
       <c r="L2">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="M2">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="N2">
         <v>28</v>
@@ -1263,12 +1315,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:17">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>42</v>
       </c>
       <c r="B3">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="C3" t="s">
         <v>43</v>
@@ -1277,7 +1329,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="4" spans="1:17">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>43</v>
       </c>
@@ -1291,7 +1343,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="5" spans="1:17">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>44</v>
       </c>
@@ -1302,10 +1354,10 @@
         <v>45</v>
       </c>
       <c r="D5" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>45</v>
       </c>
@@ -1319,28 +1371,28 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B1" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5">
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>25</v>
       </c>
@@ -1357,21 +1409,21 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>26</v>
       </c>
       <c r="B3">
+        <v>5</v>
+      </c>
+      <c r="C3">
+        <v>7</v>
+      </c>
+      <c r="D3">
         <v>4</v>
       </c>
-      <c r="C3">
-        <v>5</v>
-      </c>
-      <c r="D3">
-        <v>2</v>
-      </c>
       <c r="E3">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
   </sheetData>
@@ -1380,14 +1432,14 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1398,51 +1450,51 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B2">
+        <v>13</v>
+      </c>
+      <c r="C2" t="s">
+        <v>59</v>
+      </c>
+      <c r="D2">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="B2">
-        <v>12</v>
-      </c>
-      <c r="C2" t="s">
-        <v>60</v>
-      </c>
-      <c r="D2">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
-      <c r="A3" s="1" t="s">
-        <v>57</v>
-      </c>
       <c r="B3">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D3">
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B4">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D4">
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B5">
         <v>0</v>

--- a/Base/Teams/Chargers/2021 Team Data.xlsx
+++ b/Base/Teams/Chargers/2021 Team Data.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24527"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/136736bc97bfa800/Robbie/Football/nfl-simulation-app/Base/Teams/Chargers/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="11_11EB5B2B507EE88EFE54ED404D5BD2A6CB8A0A85" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F8E6F46D-8E3F-4264-B516-59D70C73AF7C}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="YDS" sheetId="1" r:id="rId1"/>
@@ -22,7 +16,7 @@
     <sheet name="TURNS" sheetId="7" r:id="rId7"/>
     <sheet name="PEN" sheetId="8" r:id="rId8"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
@@ -41,16 +35,16 @@
     <t>P</t>
   </si>
   <si>
-    <t>11 13 3 3 1 7 -3 1 4 3 2 0 7 2 2 0 14 5 2 3 0 4 1 2 9 -3 20 -1 16 1 3 1 5 1 0 5 1 9 5 3 9 3 7 4 1 4 -1 9 1 2 3 3 5 -2 -1 5 9 1 -1 11 6 9 6 0 8 7 -1 18 -1 0 3 5 21 5 3 -3 8 2 11 6 4 8 0 2 2 4 1 7 6 9 1 6 11 20 4 3 -2 2 8 11 2 3 10 5 2 14 3 1 9 2 6 2 4 1 4 4 8 -1 4 2 5 2 10 -2 2 1 3 -2 6 3 5 3 10 75 3 3 1 9 3 2 28 4 2 2 3 0 3 1 3 7 3 0 2 2 0 9 -3 0 1 1 5 -1 1 14 8 10 2 1 0 16 5 4 5 1 0 4 3 17 1 1 3 5 5 9 2 6 3 3 5 4 2 3 7 6 10 4 0 18 2 18 2 12 6 -2 13 4 5 2 5 36 5 1 1 7 5 6 3 3 5 1 5 -1 2 13 5 2 1 13 2 0 -1 6 7 3 9 5 0 2 5 4 1 15 1 5 6 1 3 -4 7 2</t>
-  </si>
-  <si>
-    <t>10 6 9 11 -3 7 2 11 4 18 16 10 22 1 6 17 4 17 11 7 11 23 6 19 17 3 17 7 19 20 9 22 11 7 0 5 14 -2 12 9 27 12 14 8 -1 6 10 7 8 42 8 -2 5 7 16 8 20 4 2 15 30 14 0 4 3 8 8 11 19 4 20 8 6 16 5 12 7 21 11 5 0 20 43 15 6 16 4 5 4 22 7 7 4 3 5 5 11 34 0 10 2 9 4 7 13 9 14 9 15 4 4 18 6 8 22 72 8 -1 7 7 7 7 13 5 14 42 10 5 4 37 21 3 19 29 11 11 8 3 18 7 5 8 26 1 16 1 5 10 21 15 -1 5 4 5 10 6 12 41 6 1 13 5 5 9 11 11 15 14 7 6 18 11 14 24 19 12 9 17 23 9 23 2 12 15 3 1 4 11 9 16 15 19 49 8 8 -2 7 3 8 18 3 14 4 5 11 7 11 10 18 2 7 8 5 4 22 17 11 10 2 7 7 26 13 6 2 2 22 5 11 6 17 5 7 10 18 10 14 9 10 18 6 30 14 17 8 5 7 17 3 11 12 13 5 17 53 7 24 -2 10 5 9 13 6 18 14 12 9 11 13 17 8 8 4 2 7 13 18 34 9 5 -2 16 -1 10 -1 41 5 10 47 6 7 44 23 7 4 7 12 7 12 9 7 6 -3 1 18 33 2</t>
-  </si>
-  <si>
-    <t>4 4 27 -3 2 3 6 -1 8 3 5 6 2 6 6 6 6 3 0 -2 0 6 4 5 2 5 9 1 10 1 1 3 5 -2 5 4 8 16 6 13 5 6 4 5 5 6 19 5 28 3 23 3 1 -1 5 4 3 3 4 12 10 4 11 7 8 7 3 4 7 5 14 10 4 2 3 8 4 2 18 2 12 7 5 7 4 -1 2 2 21 2 1 5 3 -1 5 4 0 2 2 10 1 2 0 6 2 1 3 20 13 -1 12 0 9 7 5 5 -5 1 8 6 2 6 -1 7 5 8 1 0 3 6 52 4 1 1 1 8 24 7 8 1 3 8 6 16 6 1 11 14 3 3 22 2 3 5 5 7 3 6 1 5 4 1 7 2 2 0 -3 5 7 3 0 9 -1 9 3 2 12 3 -1 3 4 1 8 5 6 5 6 3 7 4 7 5 2 6 10 4 6 5 4 -2 6 3 2 14 -1 6 3 2 0 1 0 1 1 2 3 0 3 8 18 4 2 5 4 2 1 4 6 8 5 4 5 3 5 6 2 3 10 2 2 3 3 0 5 2 12 2 1 10 2 4 6 0 11 5 3 -4 12 6 6 8 5 5 3 4 7 4 -3 5 -1 3 1 4 0 2 7 0 1 5 2 4 1 11 1 4 2 4 3 6 4 3 5 2 3 0 12 4 0 3 -2 1 12 2 10 2 4 2 4 2 -2 11 12 8 16 -1 9 1 2 2 6 6 2 2 0 3 0 7 4 3 8 4 4 3 0 2 2 7 1 -5 6 8 6 2 6 17 2 5 3 4 0 10 3 3 8 -3 5 10</t>
-  </si>
-  <si>
-    <t>2 6 5 12 7 11 9 2 34 11 17 17 -2 4 6 7 6 20 7 17 12 10 13 5 16 10 34 4 13 -4 1 11 7 7 5 12 4 7 15 5 6 6 8 17 -1 5 15 28 7 6 11 12 8 10 2 6 23 18 10 5 5 7 11 8 4 3 12 5 21 7 0 15 8 8 5 10 9 18 3 51 5 5 4 9 22 31 12 7 42 1 2 5 16 9 6 8 13 11 -1 7 71 13 6 3 2 10 7 4 4 8 16 8 9 21 1 10 6 4 11 9 8 20 13 6 1 14 44 2 5 11 33 7 10 4 15 7 14 2 7 17 15 9 2 2 18 27 7 23 19 21 -6 19 4 28 14 6 -1 10 24 7 7 9 3 18 21 21 5 4 27 19 3 12 15 16 3 27 5 18 8 4 16 0 8 37 22 7 9 10 2 2 6 28 5 7 1 5 16 4 5 32 18 4 5 5 7 3 13 19 5 7 12 7 5 2 12 1 12 14 42 1 5 12 21 3 9 7 32 16 29 5 7 0 5 9 20 12 6 9 11 12 16 14 25 14 10</t>
+    <t>11 13 3 3 1 7 -3 1 4 3 2 0 7 2 2 0 14 5 2 3 0 4 1 2 9 -3 20 -1 16 1 3 1 5 1 0 5 1 9 5 3 9 3 7 4 1 4 -1 9 1 2 3 3 5 -2 -1 5 9 1 -1 11 6 9 6 0 8 7 -1 18 -1 0 3 5 21 5 3 -3 8 2 11 6 4 8 0 2 2 4 1 7 6 9 1 6 11 20 4 3 -2 2 8 11 2 3 10 5 2 14 3 1 9 2 6 2 4 1 4 4 8 -1 4 2 5 2 10 -2 2 1 3 -2 6 3 5 3 10 75 3 3 1 9 3 2 28 4 2 2 3 0 3 1 3 7 3 0 2 2 0 9 -3 0 1 1 5 -1 1 14 8 10 2 1 0 16 5 4 5 1 0 4 3 17 1 1 3 5 5 9 2 6 3 3 5 4 2 3 7 6 10 4 0 18 2 18 2 12 6 -2 13 4 5 2 5 36 5 1 1 7 5 6 3 3 5 1 5 -1 2 13 5 2 1 13 2 0 -1 6 7 3 9 5 0 2 5 4 1 15 1 5 6 1 3 -4 7 2 0 14 9 5 5 9 1 1 0 2 17 2 3 3 12 4 -1 6 4 8 2 4 2 6 1 3 2 10 9 0 3 2 0 2 4</t>
+  </si>
+  <si>
+    <t>10 6 9 11 -3 7 2 11 4 18 16 10 22 1 6 17 4 17 11 7 11 23 6 19 17 3 17 7 19 20 9 22 11 7 0 5 14 -2 12 9 27 12 14 8 -1 6 10 7 8 42 8 -2 5 7 16 8 20 4 2 15 30 14 0 4 3 8 8 11 19 4 20 8 6 16 5 12 7 21 11 5 0 20 43 15 6 16 4 5 4 22 7 7 4 3 5 5 11 34 0 10 2 9 4 7 13 9 14 9 15 4 4 18 6 8 22 72 8 -1 7 7 7 7 13 5 14 42 10 5 4 37 21 3 19 29 11 11 8 3 18 7 5 8 26 1 16 1 5 10 21 15 -1 5 4 5 10 6 12 41 6 1 13 5 5 9 11 11 15 14 7 6 18 11 14 24 19 12 9 17 23 9 23 2 12 15 3 1 4 11 9 16 15 19 49 8 8 -2 7 3 8 18 3 14 4 5 11 7 11 10 18 2 7 8 5 4 22 17 11 10 2 7 7 26 13 6 2 2 22 5 11 6 17 5 7 10 18 10 14 9 10 18 6 30 14 17 8 5 7 17 3 11 12 13 5 17 53 7 24 -2 10 5 9 13 6 18 14 12 9 11 13 17 8 8 4 2 7 13 18 34 9 5 -2 16 -1 10 -1 41 5 10 47 6 7 44 23 7 4 7 12 7 12 9 7 6 -3 1 18 33 2 15 7 5 11 9 -2 15 12 10 25 7 2 7 5 17 59 7 36 5 11 8 3 1</t>
+  </si>
+  <si>
+    <t>4 4 27 -3 2 3 6 -1 8 3 5 6 2 6 6 6 6 3 0 -2 0 6 4 5 2 5 9 1 10 1 1 3 5 -2 5 4 8 16 6 13 5 6 4 5 5 6 19 5 28 3 23 3 1 -1 5 4 3 3 4 12 10 4 11 7 8 7 3 4 7 5 14 10 4 2 3 8 4 2 18 2 12 7 5 7 4 -1 2 2 21 2 1 5 3 -1 5 4 0 2 2 10 1 2 0 6 2 1 3 20 13 -1 12 0 9 7 5 5 -5 1 8 6 2 6 -1 7 5 8 1 0 3 6 52 4 1 1 1 8 24 7 8 1 3 8 6 16 6 1 11 14 3 3 22 2 3 5 5 7 3 6 1 5 4 1 7 2 2 0 -3 5 7 3 0 9 -1 9 3 2 12 3 -1 3 4 1 8 5 6 5 6 3 7 4 7 5 2 6 10 4 6 5 4 -2 6 3 2 14 -1 6 3 2 0 1 0 1 1 2 3 0 3 8 18 4 2 5 4 2 1 4 6 8 5 4 5 3 5 6 2 3 10 2 2 3 3 0 5 2 12 2 1 10 2 4 6 0 11 5 3 -4 12 6 6 8 5 5 3 4 7 4 -3 5 -1 3 1 4 0 2 7 0 1 5 2 4 1 11 1 4 2 4 3 6 4 3 5 2 3 0 12 4 0 3 -2 1 12 2 10 2 4 2 4 2 -2 11 12 8 16 -1 9 1 2 2 6 6 2 2 0 3 0 7 4 3 8 4 4 3 0 2 2 7 1 -5 6 8 6 2 6 17 2 5 3 4 0 10 3 3 8 -3 5 10 7 8 4 4 2 0 7 -1 2 7 5 1 7 5 7 4 9 5 -3 13 8 5 8 6 8 7</t>
+  </si>
+  <si>
+    <t>2 6 5 12 7 11 9 2 34 11 17 17 -2 4 6 7 6 20 7 17 12 10 13 5 16 10 34 4 13 -4 1 11 7 7 5 12 4 7 15 5 6 6 8 17 -1 5 15 28 7 6 11 12 8 10 2 6 23 18 10 5 5 7 11 8 4 3 12 5 21 7 0 15 8 8 5 10 9 18 3 51 5 5 4 9 22 31 12 7 42 1 2 5 16 9 6 8 13 11 -1 7 71 13 6 3 2 10 7 4 4 8 16 8 9 21 1 10 6 4 11 9 8 20 13 6 1 14 44 2 5 11 33 7 10 4 15 7 14 2 7 17 15 9 2 2 18 27 7 23 19 21 -6 19 4 28 14 6 -1 10 24 7 7 9 3 18 21 21 5 4 27 19 3 12 15 16 3 27 5 18 8 4 16 0 8 37 22 7 9 10 2 2 6 28 5 7 1 5 16 4 5 32 18 4 5 5 7 3 13 19 5 7 12 7 5 2 12 1 12 14 42 1 5 12 21 3 9 7 32 16 29 5 7 0 5 9 20 12 6 9 11 12 16 14 25 14 10 5 15 6 60 3 7 -2 1 17 3 9 6 18 10 1 8 24</t>
   </si>
   <si>
     <t>1N11+</t>
@@ -167,19 +161,22 @@
     <t>RM</t>
   </si>
   <si>
-    <t>55 64 64 67 65 66 67 60 64 66 65 67 69 66 59 62 61 64 69 62 67 62 64 59 65 49 66 63 62</t>
-  </si>
-  <si>
-    <t>16 31 18 24 23 24 30 25 15 31 22 30 24 28 16 11 23 47 26 24 17 19 23 30 33 7 17 10 25</t>
-  </si>
-  <si>
-    <t>19 23 17 20 24 11 14 13 15 16 16 18 16 36 10 17 25 29 19 29 39 14 23 22 48 24 27</t>
-  </si>
-  <si>
-    <t>47 47 55 24 40 53 48 58 35 39 32 63 55 41 37 69 53 57 46 52 50 49 41 50 39 59 32 35 59 57 50 48 43 45 39 49 45 36</t>
-  </si>
-  <si>
-    <t>14 8 17 0 0 7 0 17 0 5 6 0 9 8 0 14 13 17 0 21 22 10 0 27 0 45 0 0 7 17 14 8 0 5 0 5 0 0</t>
+    <t>55 64 64 67 65 66 67 60 64 66 65 67 69 66 59 62 61 64 69 62 67 62 64 59 65 49 66 63 62 67 62</t>
+  </si>
+  <si>
+    <t>16 31 18 24 23 24 30 25 15 31 22 30 24 28 16 11 23 47 26 24 17 19 23 30 33 7 17 10 25 17 17</t>
+  </si>
+  <si>
+    <t>19 23 17 20 24 11 14 13 15 16 16 18 16 36 10 17 25 29 19 29 39 14 23 22 48 24 27 0 29</t>
+  </si>
+  <si>
+    <t>47 47 55 24 40 53 48 58 35 39 32 63 55 41 37 69 53 57 46 52 50 49 41 50 39 59 32 35 59 57 50 48 43 45 39 49 45 36 38 33 7</t>
+  </si>
+  <si>
+    <t>14 8 17 0 0 7 0 17 0 5 6 0 9 8 0 14 13 17 0 21 22 10 0 27 0 45 0 0 7 17 14 8 0 5 0 5 0 0 8 0 0</t>
+  </si>
+  <si>
+    <t>0 0 0 0 0 0 0</t>
   </si>
   <si>
     <t>INT</t>
@@ -207,16 +204,13 @@
   </si>
   <si>
     <t>Offside</t>
-  </si>
-  <si>
-    <t>0 0</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -279,14 +273,6 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -333,7 +319,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -365,27 +351,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -417,24 +385,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -610,14 +560,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:C3"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -625,7 +575,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
@@ -636,7 +586,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3">
       <c r="A3" s="1" t="s">
         <v>3</v>
       </c>
@@ -653,14 +603,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:Q3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:17">
       <c r="B1" s="1" t="s">
         <v>8</v>
       </c>
@@ -710,7 +660,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:17">
       <c r="A2" s="1" t="s">
         <v>24</v>
       </c>
@@ -718,37 +668,37 @@
         <v>1</v>
       </c>
       <c r="C2">
-        <v>126</v>
+        <v>144</v>
       </c>
       <c r="D2">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E2">
         <v>6</v>
       </c>
       <c r="F2">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="G2">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="H2">
         <v>3</v>
       </c>
       <c r="I2">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="J2">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="K2" t="s">
         <v>25</v>
       </c>
       <c r="L2">
-        <v>233</v>
+        <v>264</v>
       </c>
       <c r="M2">
-        <v>150</v>
+        <v>173</v>
       </c>
       <c r="N2">
         <v>12</v>
@@ -760,10 +710,10 @@
         <v>13</v>
       </c>
       <c r="Q2">
-        <v>379</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.3">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
       <c r="A3" s="1" t="s">
         <v>18</v>
       </c>
@@ -771,28 +721,28 @@
         <v>8</v>
       </c>
       <c r="C3">
-        <v>155</v>
+        <v>166</v>
       </c>
       <c r="D3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E3">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="F3">
-        <v>81</v>
+        <v>88</v>
       </c>
       <c r="G3">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="H3">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="I3">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="J3">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="K3" t="s">
         <v>26</v>
@@ -804,7 +754,7 @@
         <v>165</v>
       </c>
       <c r="N3">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="O3" t="s">
         <v>17</v>
@@ -822,14 +772,14 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:J3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10">
       <c r="B1" s="1" t="s">
         <v>8</v>
       </c>
@@ -858,7 +808,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10">
       <c r="A2" s="1" t="s">
         <v>24</v>
       </c>
@@ -890,7 +840,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:10">
       <c r="A3" s="1" t="s">
         <v>18</v>
       </c>
@@ -928,14 +878,14 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:Q3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:17">
       <c r="B1" s="1" t="s">
         <v>8</v>
       </c>
@@ -985,7 +935,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:17">
       <c r="A2" s="1" t="s">
         <v>24</v>
       </c>
@@ -993,52 +943,52 @@
         <v>2</v>
       </c>
       <c r="C2">
-        <v>174</v>
+        <v>184</v>
       </c>
       <c r="D2">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E2">
         <v>7</v>
       </c>
       <c r="F2">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="G2">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="H2">
         <v>3</v>
       </c>
       <c r="I2">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="J2">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="K2" t="s">
         <v>25</v>
       </c>
       <c r="L2">
-        <v>210</v>
+        <v>246</v>
       </c>
       <c r="M2">
-        <v>138</v>
+        <v>155</v>
       </c>
       <c r="N2">
         <v>14</v>
       </c>
       <c r="O2">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="P2">
         <v>5</v>
       </c>
       <c r="Q2">
-        <v>392</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.3">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
       <c r="A3" s="1" t="s">
         <v>18</v>
       </c>
@@ -1046,28 +996,28 @@
         <v>8</v>
       </c>
       <c r="C3">
-        <v>118</v>
+        <v>133</v>
       </c>
       <c r="D3">
         <v>3</v>
       </c>
       <c r="E3">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F3">
-        <v>64</v>
+        <v>73</v>
       </c>
       <c r="G3">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="H3">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="I3">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="J3">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="K3" t="s">
         <v>26</v>
@@ -1079,7 +1029,7 @@
         <v>111</v>
       </c>
       <c r="N3">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="O3" t="s">
         <v>17</v>
@@ -1097,14 +1047,14 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:J3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10">
       <c r="B1" s="1" t="s">
         <v>8</v>
       </c>
@@ -1133,7 +1083,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10">
       <c r="A2" s="1" t="s">
         <v>24</v>
       </c>
@@ -1165,7 +1115,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:10">
       <c r="A3" s="1" t="s">
         <v>18</v>
       </c>
@@ -1203,16 +1153,14 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:Q6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:17">
       <c r="B1" s="1" t="s">
         <v>27</v>
       </c>
@@ -1262,27 +1210,27 @@
         <v>40</v>
       </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:17">
       <c r="A2" s="1" t="s">
         <v>41</v>
       </c>
       <c r="B2">
-        <v>64</v>
+        <v>72</v>
       </c>
       <c r="C2" t="s">
         <v>41</v>
       </c>
       <c r="D2">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="E2" t="s">
         <v>17</v>
       </c>
       <c r="F2">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="G2">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="H2">
         <v>7</v>
@@ -1291,10 +1239,10 @@
         <v>5</v>
       </c>
       <c r="J2">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="K2">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="L2">
         <v>74</v>
@@ -1315,12 +1263,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:17">
       <c r="A3" s="1" t="s">
         <v>42</v>
       </c>
       <c r="B3">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="C3" t="s">
         <v>43</v>
@@ -1329,7 +1277,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:17">
       <c r="A4" s="1" t="s">
         <v>43</v>
       </c>
@@ -1343,7 +1291,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:17">
       <c r="A5" s="1" t="s">
         <v>44</v>
       </c>
@@ -1354,10 +1302,10 @@
         <v>45</v>
       </c>
       <c r="D5" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.3">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
       <c r="A6" s="1" t="s">
         <v>45</v>
       </c>
@@ -1371,28 +1319,28 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5">
       <c r="B1" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
       <c r="A2" s="1" t="s">
         <v>25</v>
       </c>
@@ -1400,16 +1348,16 @@
         <v>6</v>
       </c>
       <c r="C2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D2">
         <v>2</v>
       </c>
       <c r="E2">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
       <c r="A3" s="1" t="s">
         <v>26</v>
       </c>
@@ -1420,10 +1368,10 @@
         <v>7</v>
       </c>
       <c r="D3">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E3">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
   </sheetData>
@@ -1432,14 +1380,14 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1450,51 +1398,51 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4">
       <c r="A2" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B2">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D2">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
       <c r="A3" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B3">
         <v>18</v>
       </c>
       <c r="C3" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D3">
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4">
       <c r="A4" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B4">
         <v>4</v>
       </c>
       <c r="C4" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D4">
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4">
       <c r="A5" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B5">
         <v>0</v>

--- a/Base/Teams/Chargers/2021 Team Data.xlsx
+++ b/Base/Teams/Chargers/2021 Team Data.xlsx
@@ -35,16 +35,16 @@
     <t>P</t>
   </si>
   <si>
-    <t>11 13 3 3 1 7 -3 1 4 3 2 0 7 2 2 0 14 5 2 3 0 4 1 2 9 -3 20 -1 16 1 3 1 5 1 0 5 1 9 5 3 9 3 7 4 1 4 -1 9 1 2 3 3 5 -2 -1 5 9 1 -1 11 6 9 6 0 8 7 -1 18 -1 0 3 5 21 5 3 -3 8 2 11 6 4 8 0 2 2 4 1 7 6 9 1 6 11 20 4 3 -2 2 8 11 2 3 10 5 2 14 3 1 9 2 6 2 4 1 4 4 8 -1 4 2 5 2 10 -2 2 1 3 -2 6 3 5 3 10 75 3 3 1 9 3 2 28 4 2 2 3 0 3 1 3 7 3 0 2 2 0 9 -3 0 1 1 5 -1 1 14 8 10 2 1 0 16 5 4 5 1 0 4 3 17 1 1 3 5 5 9 2 6 3 3 5 4 2 3 7 6 10 4 0 18 2 18 2 12 6 -2 13 4 5 2 5 36 5 1 1 7 5 6 3 3 5 1 5 -1 2 13 5 2 1 13 2 0 -1 6 7 3 9 5 0 2 5 4 1 15 1 5 6 1 3 -4 7 2 0 14 9 5 5 9 1 1 0 2 17 2 3 3 12 4 -1 6 4 8 2 4 2 6 1 3 2 10 9 0 3 2 0 2 4</t>
-  </si>
-  <si>
-    <t>10 6 9 11 -3 7 2 11 4 18 16 10 22 1 6 17 4 17 11 7 11 23 6 19 17 3 17 7 19 20 9 22 11 7 0 5 14 -2 12 9 27 12 14 8 -1 6 10 7 8 42 8 -2 5 7 16 8 20 4 2 15 30 14 0 4 3 8 8 11 19 4 20 8 6 16 5 12 7 21 11 5 0 20 43 15 6 16 4 5 4 22 7 7 4 3 5 5 11 34 0 10 2 9 4 7 13 9 14 9 15 4 4 18 6 8 22 72 8 -1 7 7 7 7 13 5 14 42 10 5 4 37 21 3 19 29 11 11 8 3 18 7 5 8 26 1 16 1 5 10 21 15 -1 5 4 5 10 6 12 41 6 1 13 5 5 9 11 11 15 14 7 6 18 11 14 24 19 12 9 17 23 9 23 2 12 15 3 1 4 11 9 16 15 19 49 8 8 -2 7 3 8 18 3 14 4 5 11 7 11 10 18 2 7 8 5 4 22 17 11 10 2 7 7 26 13 6 2 2 22 5 11 6 17 5 7 10 18 10 14 9 10 18 6 30 14 17 8 5 7 17 3 11 12 13 5 17 53 7 24 -2 10 5 9 13 6 18 14 12 9 11 13 17 8 8 4 2 7 13 18 34 9 5 -2 16 -1 10 -1 41 5 10 47 6 7 44 23 7 4 7 12 7 12 9 7 6 -3 1 18 33 2 15 7 5 11 9 -2 15 12 10 25 7 2 7 5 17 59 7 36 5 11 8 3 1</t>
-  </si>
-  <si>
-    <t>4 4 27 -3 2 3 6 -1 8 3 5 6 2 6 6 6 6 3 0 -2 0 6 4 5 2 5 9 1 10 1 1 3 5 -2 5 4 8 16 6 13 5 6 4 5 5 6 19 5 28 3 23 3 1 -1 5 4 3 3 4 12 10 4 11 7 8 7 3 4 7 5 14 10 4 2 3 8 4 2 18 2 12 7 5 7 4 -1 2 2 21 2 1 5 3 -1 5 4 0 2 2 10 1 2 0 6 2 1 3 20 13 -1 12 0 9 7 5 5 -5 1 8 6 2 6 -1 7 5 8 1 0 3 6 52 4 1 1 1 8 24 7 8 1 3 8 6 16 6 1 11 14 3 3 22 2 3 5 5 7 3 6 1 5 4 1 7 2 2 0 -3 5 7 3 0 9 -1 9 3 2 12 3 -1 3 4 1 8 5 6 5 6 3 7 4 7 5 2 6 10 4 6 5 4 -2 6 3 2 14 -1 6 3 2 0 1 0 1 1 2 3 0 3 8 18 4 2 5 4 2 1 4 6 8 5 4 5 3 5 6 2 3 10 2 2 3 3 0 5 2 12 2 1 10 2 4 6 0 11 5 3 -4 12 6 6 8 5 5 3 4 7 4 -3 5 -1 3 1 4 0 2 7 0 1 5 2 4 1 11 1 4 2 4 3 6 4 3 5 2 3 0 12 4 0 3 -2 1 12 2 10 2 4 2 4 2 -2 11 12 8 16 -1 9 1 2 2 6 6 2 2 0 3 0 7 4 3 8 4 4 3 0 2 2 7 1 -5 6 8 6 2 6 17 2 5 3 4 0 10 3 3 8 -3 5 10 7 8 4 4 2 0 7 -1 2 7 5 1 7 5 7 4 9 5 -3 13 8 5 8 6 8 7</t>
-  </si>
-  <si>
-    <t>2 6 5 12 7 11 9 2 34 11 17 17 -2 4 6 7 6 20 7 17 12 10 13 5 16 10 34 4 13 -4 1 11 7 7 5 12 4 7 15 5 6 6 8 17 -1 5 15 28 7 6 11 12 8 10 2 6 23 18 10 5 5 7 11 8 4 3 12 5 21 7 0 15 8 8 5 10 9 18 3 51 5 5 4 9 22 31 12 7 42 1 2 5 16 9 6 8 13 11 -1 7 71 13 6 3 2 10 7 4 4 8 16 8 9 21 1 10 6 4 11 9 8 20 13 6 1 14 44 2 5 11 33 7 10 4 15 7 14 2 7 17 15 9 2 2 18 27 7 23 19 21 -6 19 4 28 14 6 -1 10 24 7 7 9 3 18 21 21 5 4 27 19 3 12 15 16 3 27 5 18 8 4 16 0 8 37 22 7 9 10 2 2 6 28 5 7 1 5 16 4 5 32 18 4 5 5 7 3 13 19 5 7 12 7 5 2 12 1 12 14 42 1 5 12 21 3 9 7 32 16 29 5 7 0 5 9 20 12 6 9 11 12 16 14 25 14 10 5 15 6 60 3 7 -2 1 17 3 9 6 18 10 1 8 24</t>
+    <t>11 13 3 3 1 7 -3 1 4 3 2 0 7 2 2 0 14 5 2 3 0 4 1 2 9 -3 20 -1 16 1 3 1 5 1 0 5 1 9 5 3 9 3 7 4 1 4 -1 9 1 2 3 3 5 -2 -1 5 9 1 -1 11 6 9 6 0 8 7 -1 18 -1 0 3 5 21 5 3 -3 8 2 11 6 4 8 0 2 2 4 1 7 6 9 1 6 11 20 4 3 -2 2 8 11 2 3 10 5 2 14 3 1 9 2 6 2 4 1 4 4 8 -1 4 2 5 2 10 -2 2 1 3 -2 6 3 5 3 10 75 3 3 1 9 3 2 28 4 2 2 3 0 3 1 3 7 3 0 2 2 0 9 -3 0 1 1 5 -1 1 14 8 10 2 1 0 16 5 4 5 1 0 4 3 17 1 1 3 5 5 9 2 6 3 3 5 4 2 3 7 6 10 4 0 18 2 18 2 12 6 -2 13 4 5 2 5 36 5 1 1 7 5 6 3 3 5 1 5 -1 2 13 5 2 1 13 2 0 -1 6 7 3 9 5 0 2 5 4 1 15 1 5 6 1 3 -4 7 2 0 14 9 5 5 9 1 1 0 2 17 2 3 3 12 4 -1 6 4 8 2 4 2 6 1 3 2 10 9 0 3 2 0 2 4 4 15 3 15 4 3 6 2 4 1 2 7 0 9 4 6 8 4 3 1 8 2 4 8 22 1 1 3 0 2 2 3 2 6 15 2 2</t>
+  </si>
+  <si>
+    <t>10 6 9 11 -3 7 2 11 4 18 16 10 22 1 6 17 4 17 11 7 11 23 6 19 17 3 17 7 19 20 9 22 11 7 0 5 14 -2 12 9 27 12 14 8 -1 6 10 7 8 42 8 -2 5 7 16 8 20 4 2 15 30 14 0 4 3 8 8 11 19 4 20 8 6 16 5 12 7 21 11 5 0 20 43 15 6 16 4 5 4 22 7 7 4 3 5 5 11 34 0 10 2 9 4 7 13 9 14 9 15 4 4 18 6 8 22 72 8 -1 7 7 7 7 13 5 14 42 10 5 4 37 21 3 19 29 11 11 8 3 18 7 5 8 26 1 16 1 5 10 21 15 -1 5 4 5 10 6 12 41 6 1 13 5 5 9 11 11 15 14 7 6 18 11 14 24 19 12 9 17 23 9 23 2 12 15 3 1 4 11 9 16 15 19 49 8 8 -2 7 3 8 18 3 14 4 5 11 7 11 10 18 2 7 8 5 4 22 17 11 10 2 7 7 26 13 6 2 2 22 5 11 6 17 5 7 10 18 10 14 9 10 18 6 30 14 17 8 5 7 17 3 11 12 13 5 17 53 7 24 -2 10 5 9 13 6 18 14 12 9 11 13 17 8 8 4 2 7 13 18 34 9 5 -2 16 -1 10 -1 41 5 10 47 6 7 44 23 7 4 7 12 7 12 9 7 6 -3 1 18 33 2 15 7 5 11 9 -2 15 12 10 25 7 2 7 5 17 59 7 36 5 11 8 3 1 9 4 12 12 13 15 4 2 27 7 5 4 17 6 29 8 5 15 15 8 5 14</t>
+  </si>
+  <si>
+    <t>4 4 27 -3 2 3 6 -1 8 3 5 6 2 6 6 6 6 3 0 -2 0 6 4 5 2 5 9 1 10 1 1 3 5 -2 5 4 8 16 6 13 5 6 4 5 5 6 19 5 28 3 23 3 1 -1 5 4 3 3 4 12 10 4 11 7 8 7 3 4 7 5 14 10 4 2 3 8 4 2 18 2 12 7 5 7 4 -1 2 2 21 2 1 5 3 -1 5 4 0 2 2 10 1 2 0 6 2 1 3 20 13 -1 12 0 9 7 5 5 -5 1 8 6 2 6 -1 7 5 8 1 0 3 6 52 4 1 1 1 8 24 7 8 1 3 8 6 16 6 1 11 14 3 3 22 2 3 5 5 7 3 6 1 5 4 1 7 2 2 0 -3 5 7 3 0 9 -1 9 3 2 12 3 -1 3 4 1 8 5 6 5 6 3 7 4 7 5 2 6 10 4 6 5 4 -2 6 3 2 14 -1 6 3 2 0 1 0 1 1 2 3 0 3 8 18 4 2 5 4 2 1 4 6 8 5 4 5 3 5 6 2 3 10 2 2 3 3 0 5 2 12 2 1 10 2 4 6 0 11 5 3 -4 12 6 6 8 5 5 3 4 7 4 -3 5 -1 3 1 4 0 2 7 0 1 5 2 4 1 11 1 4 2 4 3 6 4 3 5 2 3 0 12 4 0 3 -2 1 12 2 10 2 4 2 4 2 -2 11 12 8 16 -1 9 1 2 2 6 6 2 2 0 3 0 7 4 3 8 4 4 3 0 2 2 7 1 -5 6 8 6 2 6 17 2 5 3 4 0 10 3 3 8 -3 5 10 7 8 4 4 2 0 7 -1 2 7 5 1 7 5 7 4 9 5 -3 13 8 5 8 6 8 7 5 11 9 7 0 5 0 -1 3 3 1 2 3 0 1 5 0 1 32</t>
+  </si>
+  <si>
+    <t>2 6 5 12 7 11 9 2 34 11 17 17 -2 4 6 7 6 20 7 17 12 10 13 5 16 10 34 4 13 -4 1 11 7 7 5 12 4 7 15 5 6 6 8 17 -1 5 15 28 7 6 11 12 8 10 2 6 23 18 10 5 5 7 11 8 4 3 12 5 21 7 0 15 8 8 5 10 9 18 3 51 5 5 4 9 22 31 12 7 42 1 2 5 16 9 6 8 13 11 -1 7 71 13 6 3 2 10 7 4 4 8 16 8 9 21 1 10 6 4 11 9 8 20 13 6 1 14 44 2 5 11 33 7 10 4 15 7 14 2 7 17 15 9 2 2 18 27 7 23 19 21 -6 19 4 28 14 6 -1 10 24 7 7 9 3 18 21 21 5 4 27 19 3 12 15 16 3 27 5 18 8 4 16 0 8 37 22 7 9 10 2 2 6 28 5 7 1 5 16 4 5 32 18 4 5 5 7 3 13 19 5 7 12 7 5 2 12 1 12 14 42 1 5 12 21 3 9 7 32 16 29 5 7 0 5 9 20 12 6 9 11 12 16 14 25 14 10 5 15 6 60 3 7 -2 1 17 3 9 6 18 10 1 8 24 12 14 5 9 20 11 12 -1 17 4 3 6 5 23 10 40 5 3 9 0 6 69 1 5 10 20 7 10 27 14 34</t>
   </si>
   <si>
     <t>1N11+</t>
@@ -161,22 +161,22 @@
     <t>RM</t>
   </si>
   <si>
-    <t>55 64 64 67 65 66 67 60 64 66 65 67 69 66 59 62 61 64 69 62 67 62 64 59 65 49 66 63 62 67 62</t>
-  </si>
-  <si>
-    <t>16 31 18 24 23 24 30 25 15 31 22 30 24 28 16 11 23 47 26 24 17 19 23 30 33 7 17 10 25 17 17</t>
-  </si>
-  <si>
-    <t>19 23 17 20 24 11 14 13 15 16 16 18 16 36 10 17 25 29 19 29 39 14 23 22 48 24 27 0 29</t>
-  </si>
-  <si>
-    <t>47 47 55 24 40 53 48 58 35 39 32 63 55 41 37 69 53 57 46 52 50 49 41 50 39 59 32 35 59 57 50 48 43 45 39 49 45 36 38 33 7</t>
-  </si>
-  <si>
-    <t>14 8 17 0 0 7 0 17 0 5 6 0 9 8 0 14 13 17 0 21 22 10 0 27 0 45 0 0 7 17 14 8 0 5 0 5 0 0 8 0 0</t>
-  </si>
-  <si>
-    <t>0 0 0 0 0 0 0</t>
+    <t>55 64 64 67 65 66 67 60 64 66 65 67 69 66 59 62 61 64 69 62 67 62 64 59 65 49 66 63 62 67 62 69</t>
+  </si>
+  <si>
+    <t>16 31 18 24 23 24 30 25 15 31 22 30 24 28 16 11 23 47 26 24 17 19 23 30 33 7 17 10 25 17 17 19</t>
+  </si>
+  <si>
+    <t>19 23 17 20 24 11 14 13 15 16 16 18 16 36 10 17 25 29 19 29 39 14 23 22 48 24 27 0 29 75</t>
+  </si>
+  <si>
+    <t>47 47 55 24 40 53 48 58 35 39 32 63 55 41 37 69 53 57 46 52 50 49 41 50 39 59 32 35 59 57 50 48 43 45 39 49 45 36 38 33 7 41</t>
+  </si>
+  <si>
+    <t>14 8 17 0 0 7 0 17 0 5 6 0 9 8 0 14 13 17 0 21 22 10 0 27 0 45 0 0 7 17 14 8 0 5 0 5 0 0 8 0 0 8</t>
+  </si>
+  <si>
+    <t>0 0 0 0 0 0 0 0</t>
   </si>
   <si>
     <t>INT</t>
@@ -668,19 +668,19 @@
         <v>1</v>
       </c>
       <c r="C2">
-        <v>144</v>
+        <v>162</v>
       </c>
       <c r="D2">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="E2">
         <v>6</v>
       </c>
       <c r="F2">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="G2">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="H2">
         <v>3</v>
@@ -689,28 +689,28 @@
         <v>7</v>
       </c>
       <c r="J2">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="K2" t="s">
         <v>25</v>
       </c>
       <c r="L2">
-        <v>264</v>
+        <v>303</v>
       </c>
       <c r="M2">
-        <v>173</v>
+        <v>195</v>
       </c>
       <c r="N2">
         <v>12</v>
       </c>
       <c r="O2">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="P2">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="Q2">
-        <v>448</v>
+        <v>528</v>
       </c>
     </row>
     <row r="3" spans="1:17">
@@ -721,28 +721,28 @@
         <v>8</v>
       </c>
       <c r="C3">
-        <v>166</v>
+        <v>175</v>
       </c>
       <c r="D3">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E3">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F3">
-        <v>88</v>
+        <v>98</v>
       </c>
       <c r="G3">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="H3">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="I3">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="J3">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="K3" t="s">
         <v>26</v>
@@ -940,22 +940,22 @@
         <v>24</v>
       </c>
       <c r="B2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C2">
-        <v>184</v>
+        <v>193</v>
       </c>
       <c r="D2">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E2">
         <v>7</v>
       </c>
       <c r="F2">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="G2">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="H2">
         <v>3</v>
@@ -964,28 +964,28 @@
         <v>7</v>
       </c>
       <c r="J2">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="K2" t="s">
         <v>25</v>
       </c>
       <c r="L2">
-        <v>246</v>
+        <v>293</v>
       </c>
       <c r="M2">
-        <v>155</v>
+        <v>186</v>
       </c>
       <c r="N2">
         <v>14</v>
       </c>
       <c r="O2">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="P2">
         <v>5</v>
       </c>
       <c r="Q2">
-        <v>459</v>
+        <v>528</v>
       </c>
     </row>
     <row r="3" spans="1:17">
@@ -996,28 +996,28 @@
         <v>8</v>
       </c>
       <c r="C3">
-        <v>133</v>
+        <v>153</v>
       </c>
       <c r="D3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E3">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="F3">
-        <v>73</v>
+        <v>83</v>
       </c>
       <c r="G3">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="H3">
         <v>18</v>
       </c>
       <c r="I3">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="J3">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="K3" t="s">
         <v>26</v>
@@ -1029,7 +1029,7 @@
         <v>111</v>
       </c>
       <c r="N3">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="O3" t="s">
         <v>17</v>
@@ -1215,22 +1215,22 @@
         <v>41</v>
       </c>
       <c r="B2">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="C2" t="s">
         <v>41</v>
       </c>
       <c r="D2">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E2" t="s">
         <v>17</v>
       </c>
       <c r="F2">
-        <v>214</v>
+        <v>218</v>
       </c>
       <c r="G2">
-        <v>201</v>
+        <v>205</v>
       </c>
       <c r="H2">
         <v>7</v>
@@ -1268,7 +1268,7 @@
         <v>42</v>
       </c>
       <c r="B3">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="C3" t="s">
         <v>43</v>
@@ -1345,16 +1345,16 @@
         <v>25</v>
       </c>
       <c r="B2">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C2">
+        <v>4</v>
+      </c>
+      <c r="D2">
         <v>3</v>
       </c>
-      <c r="D2">
-        <v>2</v>
-      </c>
       <c r="E2">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -1371,7 +1371,7 @@
         <v>2</v>
       </c>
       <c r="E3">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
   </sheetData>
@@ -1437,7 +1437,7 @@
         <v>58</v>
       </c>
       <c r="D4">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="5" spans="1:4">

--- a/Base/Teams/Chargers/2021 Team Data.xlsx
+++ b/Base/Teams/Chargers/2021 Team Data.xlsx
@@ -35,16 +35,16 @@
     <t>P</t>
   </si>
   <si>
-    <t>11 13 3 3 1 7 -3 1 4 3 2 0 7 2 2 0 14 5 2 3 0 4 1 2 9 -3 20 -1 16 1 3 1 5 1 0 5 1 9 5 3 9 3 7 4 1 4 -1 9 1 2 3 3 5 -2 -1 5 9 1 -1 11 6 9 6 0 8 7 -1 18 -1 0 3 5 21 5 3 -3 8 2 11 6 4 8 0 2 2 4 1 7 6 9 1 6 11 20 4 3 -2 2 8 11 2 3 10 5 2 14 3 1 9 2 6 2 4 1 4 4 8 -1 4 2 5 2 10 -2 2 1 3 -2 6 3 5 3 10 75 3 3 1 9 3 2 28 4 2 2 3 0 3 1 3 7 3 0 2 2 0 9 -3 0 1 1 5 -1 1 14 8 10 2 1 0 16 5 4 5 1 0 4 3 17 1 1 3 5 5 9 2 6 3 3 5 4 2 3 7 6 10 4 0 18 2 18 2 12 6 -2 13 4 5 2 5 36 5 1 1 7 5 6 3 3 5 1 5 -1 2 13 5 2 1 13 2 0 -1 6 7 3 9 5 0 2 5 4 1 15 1 5 6 1 3 -4 7 2 0 14 9 5 5 9 1 1 0 2 17 2 3 3 12 4 -1 6 4 8 2 4 2 6 1 3 2 10 9 0 3 2 0 2 4 4 15 3 15 4 3 6 2 4 1 2 7 0 9 4 6 8 4 3 1 8 2 4 8 22 1 1 3 0 2 2 3 2 6 15 2 2</t>
-  </si>
-  <si>
-    <t>10 6 9 11 -3 7 2 11 4 18 16 10 22 1 6 17 4 17 11 7 11 23 6 19 17 3 17 7 19 20 9 22 11 7 0 5 14 -2 12 9 27 12 14 8 -1 6 10 7 8 42 8 -2 5 7 16 8 20 4 2 15 30 14 0 4 3 8 8 11 19 4 20 8 6 16 5 12 7 21 11 5 0 20 43 15 6 16 4 5 4 22 7 7 4 3 5 5 11 34 0 10 2 9 4 7 13 9 14 9 15 4 4 18 6 8 22 72 8 -1 7 7 7 7 13 5 14 42 10 5 4 37 21 3 19 29 11 11 8 3 18 7 5 8 26 1 16 1 5 10 21 15 -1 5 4 5 10 6 12 41 6 1 13 5 5 9 11 11 15 14 7 6 18 11 14 24 19 12 9 17 23 9 23 2 12 15 3 1 4 11 9 16 15 19 49 8 8 -2 7 3 8 18 3 14 4 5 11 7 11 10 18 2 7 8 5 4 22 17 11 10 2 7 7 26 13 6 2 2 22 5 11 6 17 5 7 10 18 10 14 9 10 18 6 30 14 17 8 5 7 17 3 11 12 13 5 17 53 7 24 -2 10 5 9 13 6 18 14 12 9 11 13 17 8 8 4 2 7 13 18 34 9 5 -2 16 -1 10 -1 41 5 10 47 6 7 44 23 7 4 7 12 7 12 9 7 6 -3 1 18 33 2 15 7 5 11 9 -2 15 12 10 25 7 2 7 5 17 59 7 36 5 11 8 3 1 9 4 12 12 13 15 4 2 27 7 5 4 17 6 29 8 5 15 15 8 5 14</t>
-  </si>
-  <si>
-    <t>4 4 27 -3 2 3 6 -1 8 3 5 6 2 6 6 6 6 3 0 -2 0 6 4 5 2 5 9 1 10 1 1 3 5 -2 5 4 8 16 6 13 5 6 4 5 5 6 19 5 28 3 23 3 1 -1 5 4 3 3 4 12 10 4 11 7 8 7 3 4 7 5 14 10 4 2 3 8 4 2 18 2 12 7 5 7 4 -1 2 2 21 2 1 5 3 -1 5 4 0 2 2 10 1 2 0 6 2 1 3 20 13 -1 12 0 9 7 5 5 -5 1 8 6 2 6 -1 7 5 8 1 0 3 6 52 4 1 1 1 8 24 7 8 1 3 8 6 16 6 1 11 14 3 3 22 2 3 5 5 7 3 6 1 5 4 1 7 2 2 0 -3 5 7 3 0 9 -1 9 3 2 12 3 -1 3 4 1 8 5 6 5 6 3 7 4 7 5 2 6 10 4 6 5 4 -2 6 3 2 14 -1 6 3 2 0 1 0 1 1 2 3 0 3 8 18 4 2 5 4 2 1 4 6 8 5 4 5 3 5 6 2 3 10 2 2 3 3 0 5 2 12 2 1 10 2 4 6 0 11 5 3 -4 12 6 6 8 5 5 3 4 7 4 -3 5 -1 3 1 4 0 2 7 0 1 5 2 4 1 11 1 4 2 4 3 6 4 3 5 2 3 0 12 4 0 3 -2 1 12 2 10 2 4 2 4 2 -2 11 12 8 16 -1 9 1 2 2 6 6 2 2 0 3 0 7 4 3 8 4 4 3 0 2 2 7 1 -5 6 8 6 2 6 17 2 5 3 4 0 10 3 3 8 -3 5 10 7 8 4 4 2 0 7 -1 2 7 5 1 7 5 7 4 9 5 -3 13 8 5 8 6 8 7 5 11 9 7 0 5 0 -1 3 3 1 2 3 0 1 5 0 1 32</t>
-  </si>
-  <si>
-    <t>2 6 5 12 7 11 9 2 34 11 17 17 -2 4 6 7 6 20 7 17 12 10 13 5 16 10 34 4 13 -4 1 11 7 7 5 12 4 7 15 5 6 6 8 17 -1 5 15 28 7 6 11 12 8 10 2 6 23 18 10 5 5 7 11 8 4 3 12 5 21 7 0 15 8 8 5 10 9 18 3 51 5 5 4 9 22 31 12 7 42 1 2 5 16 9 6 8 13 11 -1 7 71 13 6 3 2 10 7 4 4 8 16 8 9 21 1 10 6 4 11 9 8 20 13 6 1 14 44 2 5 11 33 7 10 4 15 7 14 2 7 17 15 9 2 2 18 27 7 23 19 21 -6 19 4 28 14 6 -1 10 24 7 7 9 3 18 21 21 5 4 27 19 3 12 15 16 3 27 5 18 8 4 16 0 8 37 22 7 9 10 2 2 6 28 5 7 1 5 16 4 5 32 18 4 5 5 7 3 13 19 5 7 12 7 5 2 12 1 12 14 42 1 5 12 21 3 9 7 32 16 29 5 7 0 5 9 20 12 6 9 11 12 16 14 25 14 10 5 15 6 60 3 7 -2 1 17 3 9 6 18 10 1 8 24 12 14 5 9 20 11 12 -1 17 4 3 6 5 23 10 40 5 3 9 0 6 69 1 5 10 20 7 10 27 14 34</t>
+    <t>11 13 3 3 1 7 -3 1 4 3 2 0 7 2 2 0 14 5 2 3 0 4 1 2 9 -3 20 -1 16 1 3 1 5 1 0 5 1 9 5 3 9 3 7 4 1 4 -1 9 1 2 3 3 5 -2 -1 5 9 1 -1 11 6 9 6 0 8 7 -1 18 -1 0 3 5 21 5 3 -3 8 2 11 6 4 8 0 2 2 4 1 7 6 9 1 6 11 20 4 3 -2 2 8 11 2 3 10 5 2 14 3 1 9 2 6 2 4 1 4 4 8 -1 4 2 5 2 10 -2 2 1 3 -2 6 3 5 3 10 75 3 3 1 9 3 2 28 4 2 2 3 0 3 1 3 7 3 0 2 2 0 9 -3 0 1 1 5 -1 1 14 8 10 2 1 0 16 5 4 5 1 0 4 3 17 1 1 3 5 5 9 2 6 3 3 5 4 2 3 7 6 10 4 0 18 2 18 2 12 6 -2 13 4 5 2 5 36 5 1 1 7 5 6 3 3 5 1 5 -1 2 13 5 2 1 13 2 0 -1 6 7 3 9 5 0 2 5 4 1 15 1 5 6 1 3 -4 7 2 0 14 9 5 5 9 1 1 0 2 17 2 3 3 12 4 -1 6 4 8 2 4 2 6 1 3 2 10 9 0 3 2 0 2 4 4 15 3 15 4 3 6 2 4 1 2 7 0 9 4 6 8 4 3 1 8 2 4 8 22 1 1 3 0 2 2 3 2 6 15 2 2 2 1 2 3 5 15 3 0 17 9 4 13 -1 0 2 8 1 7 1 2 9</t>
+  </si>
+  <si>
+    <t>10 6 9 11 -3 7 2 11 4 18 16 10 22 1 6 17 4 17 11 7 11 23 6 19 17 3 17 7 19 20 9 22 11 7 0 5 14 -2 12 9 27 12 14 8 -1 6 10 7 8 42 8 -2 5 7 16 8 20 4 2 15 30 14 0 4 3 8 8 11 19 4 20 8 6 16 5 12 7 21 11 5 0 20 43 15 6 16 4 5 4 22 7 7 4 3 5 5 11 34 0 10 2 9 4 7 13 9 14 9 15 4 4 18 6 8 22 72 8 -1 7 7 7 7 13 5 14 42 10 5 4 37 21 3 19 29 11 11 8 3 18 7 5 8 26 1 16 1 5 10 21 15 -1 5 4 5 10 6 12 41 6 1 13 5 5 9 11 11 15 14 7 6 18 11 14 24 19 12 9 17 23 9 23 2 12 15 3 1 4 11 9 16 15 19 49 8 8 -2 7 3 8 18 3 14 4 5 11 7 11 10 18 2 7 8 5 4 22 17 11 10 2 7 7 26 13 6 2 2 22 5 11 6 17 5 7 10 18 10 14 9 10 18 6 30 14 17 8 5 7 17 3 11 12 13 5 17 53 7 24 -2 10 5 9 13 6 18 14 12 9 11 13 17 8 8 4 2 7 13 18 34 9 5 -2 16 -1 10 -1 41 5 10 47 6 7 44 23 7 4 7 12 7 12 9 7 6 -3 1 18 33 2 15 7 5 11 9 -2 15 12 10 25 7 2 7 5 17 59 7 36 5 11 8 3 1 9 4 12 12 13 15 4 2 27 7 5 4 17 6 29 8 5 15 15 8 5 14 7 10 16 9 12 25 9 18 12 15 16 14 6 12 17 11 9 17 7 7 6 6 24 13 8 27 3</t>
+  </si>
+  <si>
+    <t>4 4 27 -3 2 3 6 -1 8 3 5 6 2 6 6 6 6 3 0 -2 0 6 4 5 2 5 9 1 10 1 1 3 5 -2 5 4 8 16 6 13 5 6 4 5 5 6 19 5 28 3 23 3 1 -1 5 4 3 3 4 12 10 4 11 7 8 7 3 4 7 5 14 10 4 2 3 8 4 2 18 2 12 7 5 7 4 -1 2 2 21 2 1 5 3 -1 5 4 0 2 2 10 1 2 0 6 2 1 3 20 13 -1 12 0 9 7 5 5 -5 1 8 6 2 6 -1 7 5 8 1 0 3 6 52 4 1 1 1 8 24 7 8 1 3 8 6 16 6 1 11 14 3 3 22 2 3 5 5 7 3 6 1 5 4 1 7 2 2 0 -3 5 7 3 0 9 -1 9 3 2 12 3 -1 3 4 1 8 5 6 5 6 3 7 4 7 5 2 6 10 4 6 5 4 -2 6 3 2 14 -1 6 3 2 0 1 0 1 1 2 3 0 3 8 18 4 2 5 4 2 1 4 6 8 5 4 5 3 5 6 2 3 10 2 2 3 3 0 5 2 12 2 1 10 2 4 6 0 11 5 3 -4 12 6 6 8 5 5 3 4 7 4 -3 5 -1 3 1 4 0 2 7 0 1 5 2 4 1 11 1 4 2 4 3 6 4 3 5 2 3 0 12 4 0 3 -2 1 12 2 10 2 4 2 4 2 -2 11 12 8 16 -1 9 1 2 2 6 6 2 2 0 3 0 7 4 3 8 4 4 3 0 2 2 7 1 -5 6 8 6 2 6 17 2 5 3 4 0 10 3 3 8 -3 5 10 7 8 4 4 2 0 7 -1 2 7 5 1 7 5 7 4 9 5 -3 13 8 5 8 6 8 7 5 11 9 7 0 5 0 -1 3 3 1 2 3 0 1 5 0 1 32 9 3 4 25 2 4 2 13 1 2 1 2 3 5 15 6 1 5 2 2 4 7 4 2 1 1 2 1 3 3 4 36 -2 14</t>
+  </si>
+  <si>
+    <t>2 6 5 12 7 11 9 2 34 11 17 17 -2 4 6 7 6 20 7 17 12 10 13 5 16 10 34 4 13 -4 1 11 7 7 5 12 4 7 15 5 6 6 8 17 -1 5 15 28 7 6 11 12 8 10 2 6 23 18 10 5 5 7 11 8 4 3 12 5 21 7 0 15 8 8 5 10 9 18 3 51 5 5 4 9 22 31 12 7 42 1 2 5 16 9 6 8 13 11 -1 7 71 13 6 3 2 10 7 4 4 8 16 8 9 21 1 10 6 4 11 9 8 20 13 6 1 14 44 2 5 11 33 7 10 4 15 7 14 2 7 17 15 9 2 2 18 27 7 23 19 21 -6 19 4 28 14 6 -1 10 24 7 7 9 3 18 21 21 5 4 27 19 3 12 15 16 3 27 5 18 8 4 16 0 8 37 22 7 9 10 2 2 6 28 5 7 1 5 16 4 5 32 18 4 5 5 7 3 13 19 5 7 12 7 5 2 12 1 12 14 42 1 5 12 21 3 9 7 32 16 29 5 7 0 5 9 20 12 6 9 11 12 16 14 25 14 10 5 15 6 60 3 7 -2 1 17 3 9 6 18 10 1 8 24 12 14 5 9 20 11 12 -1 17 4 3 6 5 23 10 40 5 3 9 0 6 69 1 5 10 20 7 10 27 14 34 7 4 11 -4 11 4 14 5 36 6 41 18 12 9 6 27 -1 12 23 4 13</t>
   </si>
   <si>
     <t>1N11+</t>
@@ -161,13 +161,13 @@
     <t>RM</t>
   </si>
   <si>
-    <t>55 64 64 67 65 66 67 60 64 66 65 67 69 66 59 62 61 64 69 62 67 62 64 59 65 49 66 63 62 67 62 69</t>
-  </si>
-  <si>
-    <t>16 31 18 24 23 24 30 25 15 31 22 30 24 28 16 11 23 47 26 24 17 19 23 30 33 7 17 10 25 17 17 19</t>
-  </si>
-  <si>
-    <t>19 23 17 20 24 11 14 13 15 16 16 18 16 36 10 17 25 29 19 29 39 14 23 22 48 24 27 0 29 75</t>
+    <t>55 64 64 67 65 66 67 60 64 66 65 67 69 66 59 62 61 64 69 62 67 62 64 59 65 49 66 63 62 67 62 69 37</t>
+  </si>
+  <si>
+    <t>16 31 18 24 23 24 30 25 15 31 22 30 24 28 16 11 23 47 26 24 17 19 23 30 33 7 17 10 25 17 17 19 0</t>
+  </si>
+  <si>
+    <t>19 23 17 20 24 11 14 13 15 16 16 18 16 36 10 17 25 29 19 29 39 14 23 22 48 24 27 0 29 75 17 23 17 27 21</t>
   </si>
   <si>
     <t>47 47 55 24 40 53 48 58 35 39 32 63 55 41 37 69 53 57 46 52 50 49 41 50 39 59 32 35 59 57 50 48 43 45 39 49 45 36 38 33 7 41</t>
@@ -176,7 +176,7 @@
     <t>14 8 17 0 0 7 0 17 0 5 6 0 9 8 0 14 13 17 0 21 22 10 0 27 0 45 0 0 7 17 14 8 0 5 0 5 0 0 8 0 0 8</t>
   </si>
   <si>
-    <t>0 0 0 0 0 0 0 0</t>
+    <t>0 0 0 0 0 0 0 0 0</t>
   </si>
   <si>
     <t>INT</t>
@@ -668,7 +668,7 @@
         <v>1</v>
       </c>
       <c r="C2">
-        <v>162</v>
+        <v>176</v>
       </c>
       <c r="D2">
         <v>15</v>
@@ -677,19 +677,19 @@
         <v>6</v>
       </c>
       <c r="F2">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="G2">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="H2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I2">
         <v>7</v>
       </c>
       <c r="J2">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="K2" t="s">
         <v>25</v>
@@ -701,7 +701,7 @@
         <v>195</v>
       </c>
       <c r="N2">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="O2">
         <v>26</v>
@@ -721,37 +721,37 @@
         <v>8</v>
       </c>
       <c r="C3">
-        <v>175</v>
+        <v>191</v>
       </c>
       <c r="D3">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E3">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F3">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="G3">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="H3">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="I3">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="J3">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="K3" t="s">
         <v>26</v>
       </c>
       <c r="L3">
-        <v>240</v>
+        <v>275</v>
       </c>
       <c r="M3">
-        <v>165</v>
+        <v>192</v>
       </c>
       <c r="N3">
         <v>15</v>
@@ -763,7 +763,7 @@
         <v>17</v>
       </c>
       <c r="Q3">
-        <v>380</v>
+        <v>440</v>
       </c>
     </row>
   </sheetData>
@@ -943,19 +943,19 @@
         <v>3</v>
       </c>
       <c r="C2">
-        <v>193</v>
+        <v>210</v>
       </c>
       <c r="D2">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E2">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="F2">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="G2">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="H2">
         <v>3</v>
@@ -964,7 +964,7 @@
         <v>7</v>
       </c>
       <c r="J2">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="K2" t="s">
         <v>25</v>
@@ -976,7 +976,7 @@
         <v>186</v>
       </c>
       <c r="N2">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="O2">
         <v>17</v>
@@ -996,37 +996,37 @@
         <v>8</v>
       </c>
       <c r="C3">
-        <v>153</v>
+        <v>163</v>
       </c>
       <c r="D3">
         <v>4</v>
       </c>
       <c r="E3">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="F3">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="G3">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="H3">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I3">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="J3">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="K3" t="s">
         <v>26</v>
       </c>
       <c r="L3">
-        <v>174</v>
+        <v>201</v>
       </c>
       <c r="M3">
-        <v>111</v>
+        <v>132</v>
       </c>
       <c r="N3">
         <v>16</v>
@@ -1038,7 +1038,7 @@
         <v>17</v>
       </c>
       <c r="Q3">
-        <v>382</v>
+        <v>452</v>
       </c>
     </row>
   </sheetData>
@@ -1215,7 +1215,7 @@
         <v>41</v>
       </c>
       <c r="B2">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="C2" t="s">
         <v>41</v>
@@ -1233,28 +1233,28 @@
         <v>205</v>
       </c>
       <c r="H2">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="I2">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="J2">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="K2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="L2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="M2">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="N2">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="O2">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="P2">
         <v>0</v>
@@ -1268,7 +1268,7 @@
         <v>42</v>
       </c>
       <c r="B3">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="C3" t="s">
         <v>43</v>
@@ -1362,16 +1362,16 @@
         <v>26</v>
       </c>
       <c r="B3">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C3">
         <v>7</v>
       </c>
       <c r="D3">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E3">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
   </sheetData>
@@ -1403,7 +1403,7 @@
         <v>56</v>
       </c>
       <c r="B2">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C2" t="s">
         <v>60</v>
@@ -1417,13 +1417,13 @@
         <v>57</v>
       </c>
       <c r="B3">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C3" t="s">
         <v>57</v>
       </c>
       <c r="D3">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -1437,7 +1437,7 @@
         <v>58</v>
       </c>
       <c r="D4">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:4">

--- a/Base/Teams/Chargers/2021 Team Data.xlsx
+++ b/Base/Teams/Chargers/2021 Team Data.xlsx
@@ -35,16 +35,16 @@
     <t>P</t>
   </si>
   <si>
-    <t>11 13 3 3 1 7 -3 1 4 3 2 0 7 2 2 0 14 5 2 3 0 4 1 2 9 -3 20 -1 16 1 3 1 5 1 0 5 1 9 5 3 9 3 7 4 1 4 -1 9 1 2 3 3 5 -2 -1 5 9 1 -1 11 6 9 6 0 8 7 -1 18 -1 0 3 5 21 5 3 -3 8 2 11 6 4 8 0 2 2 4 1 7 6 9 1 6 11 20 4 3 -2 2 8 11 2 3 10 5 2 14 3 1 9 2 6 2 4 1 4 4 8 -1 4 2 5 2 10 -2 2 1 3 -2 6 3 5 3 10 75 3 3 1 9 3 2 28 4 2 2 3 0 3 1 3 7 3 0 2 2 0 9 -3 0 1 1 5 -1 1 14 8 10 2 1 0 16 5 4 5 1 0 4 3 17 1 1 3 5 5 9 2 6 3 3 5 4 2 3 7 6 10 4 0 18 2 18 2 12 6 -2 13 4 5 2 5 36 5 1 1 7 5 6 3 3 5 1 5 -1 2 13 5 2 1 13 2 0 -1 6 7 3 9 5 0 2 5 4 1 15 1 5 6 1 3 -4 7 2 0 14 9 5 5 9 1 1 0 2 17 2 3 3 12 4 -1 6 4 8 2 4 2 6 1 3 2 10 9 0 3 2 0 2 4 4 15 3 15 4 3 6 2 4 1 2 7 0 9 4 6 8 4 3 1 8 2 4 8 22 1 1 3 0 2 2 3 2 6 15 2 2 2 1 2 3 5 15 3 0 17 9 4 13 -1 0 2 8 1 7 1 2 9</t>
-  </si>
-  <si>
-    <t>10 6 9 11 -3 7 2 11 4 18 16 10 22 1 6 17 4 17 11 7 11 23 6 19 17 3 17 7 19 20 9 22 11 7 0 5 14 -2 12 9 27 12 14 8 -1 6 10 7 8 42 8 -2 5 7 16 8 20 4 2 15 30 14 0 4 3 8 8 11 19 4 20 8 6 16 5 12 7 21 11 5 0 20 43 15 6 16 4 5 4 22 7 7 4 3 5 5 11 34 0 10 2 9 4 7 13 9 14 9 15 4 4 18 6 8 22 72 8 -1 7 7 7 7 13 5 14 42 10 5 4 37 21 3 19 29 11 11 8 3 18 7 5 8 26 1 16 1 5 10 21 15 -1 5 4 5 10 6 12 41 6 1 13 5 5 9 11 11 15 14 7 6 18 11 14 24 19 12 9 17 23 9 23 2 12 15 3 1 4 11 9 16 15 19 49 8 8 -2 7 3 8 18 3 14 4 5 11 7 11 10 18 2 7 8 5 4 22 17 11 10 2 7 7 26 13 6 2 2 22 5 11 6 17 5 7 10 18 10 14 9 10 18 6 30 14 17 8 5 7 17 3 11 12 13 5 17 53 7 24 -2 10 5 9 13 6 18 14 12 9 11 13 17 8 8 4 2 7 13 18 34 9 5 -2 16 -1 10 -1 41 5 10 47 6 7 44 23 7 4 7 12 7 12 9 7 6 -3 1 18 33 2 15 7 5 11 9 -2 15 12 10 25 7 2 7 5 17 59 7 36 5 11 8 3 1 9 4 12 12 13 15 4 2 27 7 5 4 17 6 29 8 5 15 15 8 5 14 7 10 16 9 12 25 9 18 12 15 16 14 6 12 17 11 9 17 7 7 6 6 24 13 8 27 3</t>
-  </si>
-  <si>
-    <t>4 4 27 -3 2 3 6 -1 8 3 5 6 2 6 6 6 6 3 0 -2 0 6 4 5 2 5 9 1 10 1 1 3 5 -2 5 4 8 16 6 13 5 6 4 5 5 6 19 5 28 3 23 3 1 -1 5 4 3 3 4 12 10 4 11 7 8 7 3 4 7 5 14 10 4 2 3 8 4 2 18 2 12 7 5 7 4 -1 2 2 21 2 1 5 3 -1 5 4 0 2 2 10 1 2 0 6 2 1 3 20 13 -1 12 0 9 7 5 5 -5 1 8 6 2 6 -1 7 5 8 1 0 3 6 52 4 1 1 1 8 24 7 8 1 3 8 6 16 6 1 11 14 3 3 22 2 3 5 5 7 3 6 1 5 4 1 7 2 2 0 -3 5 7 3 0 9 -1 9 3 2 12 3 -1 3 4 1 8 5 6 5 6 3 7 4 7 5 2 6 10 4 6 5 4 -2 6 3 2 14 -1 6 3 2 0 1 0 1 1 2 3 0 3 8 18 4 2 5 4 2 1 4 6 8 5 4 5 3 5 6 2 3 10 2 2 3 3 0 5 2 12 2 1 10 2 4 6 0 11 5 3 -4 12 6 6 8 5 5 3 4 7 4 -3 5 -1 3 1 4 0 2 7 0 1 5 2 4 1 11 1 4 2 4 3 6 4 3 5 2 3 0 12 4 0 3 -2 1 12 2 10 2 4 2 4 2 -2 11 12 8 16 -1 9 1 2 2 6 6 2 2 0 3 0 7 4 3 8 4 4 3 0 2 2 7 1 -5 6 8 6 2 6 17 2 5 3 4 0 10 3 3 8 -3 5 10 7 8 4 4 2 0 7 -1 2 7 5 1 7 5 7 4 9 5 -3 13 8 5 8 6 8 7 5 11 9 7 0 5 0 -1 3 3 1 2 3 0 1 5 0 1 32 9 3 4 25 2 4 2 13 1 2 1 2 3 5 15 6 1 5 2 2 4 7 4 2 1 1 2 1 3 3 4 36 -2 14</t>
-  </si>
-  <si>
-    <t>2 6 5 12 7 11 9 2 34 11 17 17 -2 4 6 7 6 20 7 17 12 10 13 5 16 10 34 4 13 -4 1 11 7 7 5 12 4 7 15 5 6 6 8 17 -1 5 15 28 7 6 11 12 8 10 2 6 23 18 10 5 5 7 11 8 4 3 12 5 21 7 0 15 8 8 5 10 9 18 3 51 5 5 4 9 22 31 12 7 42 1 2 5 16 9 6 8 13 11 -1 7 71 13 6 3 2 10 7 4 4 8 16 8 9 21 1 10 6 4 11 9 8 20 13 6 1 14 44 2 5 11 33 7 10 4 15 7 14 2 7 17 15 9 2 2 18 27 7 23 19 21 -6 19 4 28 14 6 -1 10 24 7 7 9 3 18 21 21 5 4 27 19 3 12 15 16 3 27 5 18 8 4 16 0 8 37 22 7 9 10 2 2 6 28 5 7 1 5 16 4 5 32 18 4 5 5 7 3 13 19 5 7 12 7 5 2 12 1 12 14 42 1 5 12 21 3 9 7 32 16 29 5 7 0 5 9 20 12 6 9 11 12 16 14 25 14 10 5 15 6 60 3 7 -2 1 17 3 9 6 18 10 1 8 24 12 14 5 9 20 11 12 -1 17 4 3 6 5 23 10 40 5 3 9 0 6 69 1 5 10 20 7 10 27 14 34 7 4 11 -4 11 4 14 5 36 6 41 18 12 9 6 27 -1 12 23 4 13</t>
+    <t>11 13 3 3 1 7 -3 1 4 3 2 0 7 2 2 0 14 5 2 3 0 4 1 2 9 -3 20 -1 16 1 3 1 5 1 0 5 1 9 5 3 9 3 7 4 1 4 -1 9 1 2 3 3 5 -2 -1 5 9 1 -1 11 6 9 6 0 8 7 -1 18 -1 0 3 5 21 5 3 -3 8 2 11 6 4 8 0 2 2 4 1 7 6 9 1 6 11 20 4 3 -2 2 8 11 2 3 10 5 2 14 3 1 9 2 6 2 4 1 4 4 8 -1 4 2 5 2 10 -2 2 1 3 -2 6 3 5 3 10 75 3 3 1 9 3 2 28 4 2 2 3 0 3 1 3 7 3 0 2 2 0 9 -3 0 1 1 5 -1 1 14 8 10 2 1 0 16 5 4 5 1 0 4 3 17 1 1 3 5 5 9 2 6 3 3 5 4 2 3 7 6 10 4 0 18 2 18 2 12 6 -2 13 4 5 2 5 36 5 1 1 7 5 6 3 3 5 1 5 -1 2 13 5 2 1 13 2 0 -1 6 7 3 9 5 0 2 5 4 1 15 1 5 6 1 3 -4 7 2 0 14 9 5 5 9 1 1 0 2 17 2 3 3 12 4 -1 6 4 8 2 4 2 6 1 3 2 10 9 0 3 2 0 2 4 4 15 3 15 4 3 6 2 4 1 2 7 0 9 4 6 8 4 3 1 8 2 4 8 22 1 1 3 0 2 2 3 2 6 15 2 2 2 1 2 3 5 15 3 0 17 9 4 13 -1 0 2 8 1 7 1 2 9 4 9 -1 2 14 3 2 6 4 3 1 6 9 6 0 2 0 -1 1 2 -4 2 7 4 5 -4 2 5 7 2 4 1 3</t>
+  </si>
+  <si>
+    <t>10 6 9 11 -3 7 2 11 4 18 16 10 22 1 6 17 4 17 11 7 11 23 6 19 17 3 17 7 19 20 9 22 11 7 0 5 14 -2 12 9 27 12 14 8 -1 6 10 7 8 42 8 -2 5 7 16 8 20 4 2 15 30 14 0 4 3 8 8 11 19 4 20 8 6 16 5 12 7 21 11 5 0 20 43 15 6 16 4 5 4 22 7 7 4 3 5 5 11 34 0 10 2 9 4 7 13 9 14 9 15 4 4 18 6 8 22 72 8 -1 7 7 7 7 13 5 14 42 10 5 4 37 21 3 19 29 11 11 8 3 18 7 5 8 26 1 16 1 5 10 21 15 -1 5 4 5 10 6 12 41 6 1 13 5 5 9 11 11 15 14 7 6 18 11 14 24 19 12 9 17 23 9 23 2 12 15 3 1 4 11 9 16 15 19 49 8 8 -2 7 3 8 18 3 14 4 5 11 7 11 10 18 2 7 8 5 4 22 17 11 10 2 7 7 26 13 6 2 2 22 5 11 6 17 5 7 10 18 10 14 9 10 18 6 30 14 17 8 5 7 17 3 11 12 13 5 17 53 7 24 -2 10 5 9 13 6 18 14 12 9 11 13 17 8 8 4 2 7 13 18 34 9 5 -2 16 -1 10 -1 41 5 10 47 6 7 44 23 7 4 7 12 7 12 9 7 6 -3 1 18 33 2 15 7 5 11 9 -2 15 12 10 25 7 2 7 5 17 59 7 36 5 11 8 3 1 9 4 12 12 13 15 4 2 27 7 5 4 17 6 29 8 5 15 15 8 5 14 7 10 16 9 12 25 9 18 12 15 16 14 6 12 17 11 9 17 7 7 6 6 24 13 8 27 3 10 8 10 11 8 3 6 8 3 5 9 3 8 7 40 16 5 5 45 8 8</t>
+  </si>
+  <si>
+    <t>4 4 27 -3 2 3 6 -1 8 3 5 6 2 6 6 6 6 3 0 -2 0 6 4 5 2 5 9 1 10 1 1 3 5 -2 5 4 8 16 6 13 5 6 4 5 5 6 19 5 28 3 23 3 1 -1 5 4 3 3 4 12 10 4 11 7 8 7 3 4 7 5 14 10 4 2 3 8 4 2 18 2 12 7 5 7 4 -1 2 2 21 2 1 5 3 -1 5 4 0 2 2 10 1 2 0 6 2 1 3 20 13 -1 12 0 9 7 5 5 -5 1 8 6 2 6 -1 7 5 8 1 0 3 6 52 4 1 1 1 8 24 7 8 1 3 8 6 16 6 1 11 14 3 3 22 2 3 5 5 7 3 6 1 5 4 1 7 2 2 0 -3 5 7 3 0 9 -1 9 3 2 12 3 -1 3 4 1 8 5 6 5 6 3 7 4 7 5 2 6 10 4 6 5 4 -2 6 3 2 14 -1 6 3 2 0 1 0 1 1 2 3 0 3 8 18 4 2 5 4 2 1 4 6 8 5 4 5 3 5 6 2 3 10 2 2 3 3 0 5 2 12 2 1 10 2 4 6 0 11 5 3 -4 12 6 6 8 5 5 3 4 7 4 -3 5 -1 3 1 4 0 2 7 0 1 5 2 4 1 11 1 4 2 4 3 6 4 3 5 2 3 0 12 4 0 3 -2 1 12 2 10 2 4 2 4 2 -2 11 12 8 16 -1 9 1 2 2 6 6 2 2 0 3 0 7 4 3 8 4 4 3 0 2 2 7 1 -5 6 8 6 2 6 17 2 5 3 4 0 10 3 3 8 -3 5 10 7 8 4 4 2 0 7 -1 2 7 5 1 7 5 7 4 9 5 -3 13 8 5 8 6 8 7 5 11 9 7 0 5 0 -1 3 3 1 2 3 0 1 5 0 1 32 9 3 4 25 2 4 2 13 1 2 1 2 3 5 15 6 1 5 2 2 4 7 4 2 1 1 2 1 3 3 4 36 -2 14 3 6 7 -3 5 5 4 5 2 0 1 0 6 12 4 7 4 -4 -4 2 2 0 4 5 2 5</t>
+  </si>
+  <si>
+    <t>2 6 5 12 7 11 9 2 34 11 17 17 -2 4 6 7 6 20 7 17 12 10 13 5 16 10 34 4 13 -4 1 11 7 7 5 12 4 7 15 5 6 6 8 17 -1 5 15 28 7 6 11 12 8 10 2 6 23 18 10 5 5 7 11 8 4 3 12 5 21 7 0 15 8 8 5 10 9 18 3 51 5 5 4 9 22 31 12 7 42 1 2 5 16 9 6 8 13 11 -1 7 71 13 6 3 2 10 7 4 4 8 16 8 9 21 1 10 6 4 11 9 8 20 13 6 1 14 44 2 5 11 33 7 10 4 15 7 14 2 7 17 15 9 2 2 18 27 7 23 19 21 -6 19 4 28 14 6 -1 10 24 7 7 9 3 18 21 21 5 4 27 19 3 12 15 16 3 27 5 18 8 4 16 0 8 37 22 7 9 10 2 2 6 28 5 7 1 5 16 4 5 32 18 4 5 5 7 3 13 19 5 7 12 7 5 2 12 1 12 14 42 1 5 12 21 3 9 7 32 16 29 5 7 0 5 9 20 12 6 9 11 12 16 14 25 14 10 5 15 6 60 3 7 -2 1 17 3 9 6 18 10 1 8 24 12 14 5 9 20 11 12 -1 17 4 3 6 5 23 10 40 5 3 9 0 6 69 1 5 10 20 7 10 27 14 34 7 4 11 -4 11 4 14 5 36 6 41 18 12 9 6 27 -1 12 23 4 13 15 0 44 18 -1 24 8 35 7 9 5 11 6 2 16 7 34 5</t>
   </si>
   <si>
     <t>1N11+</t>
@@ -167,16 +167,16 @@
     <t>16 31 18 24 23 24 30 25 15 31 22 30 24 28 16 11 23 47 26 24 17 19 23 30 33 7 17 10 25 17 17 19 0</t>
   </si>
   <si>
-    <t>19 23 17 20 24 11 14 13 15 16 16 18 16 36 10 17 25 29 19 29 39 14 23 22 48 24 27 0 29 75 17 23 17 27 21</t>
-  </si>
-  <si>
-    <t>47 47 55 24 40 53 48 58 35 39 32 63 55 41 37 69 53 57 46 52 50 49 41 50 39 59 32 35 59 57 50 48 43 45 39 49 45 36 38 33 7 41</t>
-  </si>
-  <si>
-    <t>14 8 17 0 0 7 0 17 0 5 6 0 9 8 0 14 13 17 0 21 22 10 0 27 0 45 0 0 7 17 14 8 0 5 0 5 0 0 8 0 0 8</t>
-  </si>
-  <si>
-    <t>0 0 0 0 0 0 0 0 0</t>
+    <t>19 23 17 20 24 11 14 13 15 16 16 18 16 36 10 17 25 29 19 29 39 14 23 22 48 24 27 0 29 75 17 23 17 27 21 47 1</t>
+  </si>
+  <si>
+    <t>47 47 55 24 40 53 48 58 35 39 32 63 55 41 37 69 53 57 46 52 50 49 41 50 39 59 32 35 59 57 50 48 43 45 39 49 45 36 38 33 7 41 25 48</t>
+  </si>
+  <si>
+    <t>14 8 17 0 0 7 0 17 0 5 6 0 9 8 0 14 13 17 0 21 22 10 0 27 0 45 0 0 7 17 14 8 0 5 0 5 0 0 8 0 0 8 0 4</t>
+  </si>
+  <si>
+    <t>0 0 0 0 0 0 0 0 0 0 1 4</t>
   </si>
   <si>
     <t>INT</t>
@@ -668,19 +668,19 @@
         <v>1</v>
       </c>
       <c r="C2">
-        <v>176</v>
+        <v>193</v>
       </c>
       <c r="D2">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="E2">
         <v>6</v>
       </c>
       <c r="F2">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="G2">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="H2">
         <v>4</v>
@@ -689,28 +689,28 @@
         <v>7</v>
       </c>
       <c r="J2">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="K2" t="s">
         <v>25</v>
       </c>
       <c r="L2">
-        <v>303</v>
+        <v>334</v>
       </c>
       <c r="M2">
-        <v>195</v>
+        <v>217</v>
       </c>
       <c r="N2">
         <v>13</v>
       </c>
       <c r="O2">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="P2">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="Q2">
-        <v>528</v>
+        <v>593</v>
       </c>
     </row>
     <row r="3" spans="1:17">
@@ -721,28 +721,28 @@
         <v>8</v>
       </c>
       <c r="C3">
-        <v>191</v>
+        <v>197</v>
       </c>
       <c r="D3">
         <v>6</v>
       </c>
       <c r="E3">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="F3">
-        <v>102</v>
+        <v>109</v>
       </c>
       <c r="G3">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="H3">
         <v>28</v>
       </c>
       <c r="I3">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="J3">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="K3" t="s">
         <v>26</v>
@@ -940,52 +940,52 @@
         <v>24</v>
       </c>
       <c r="B2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C2">
-        <v>210</v>
+        <v>222</v>
       </c>
       <c r="D2">
         <v>14</v>
       </c>
       <c r="E2">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F2">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="G2">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="H2">
         <v>3</v>
       </c>
       <c r="I2">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="J2">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="K2" t="s">
         <v>25</v>
       </c>
       <c r="L2">
-        <v>293</v>
+        <v>322</v>
       </c>
       <c r="M2">
-        <v>186</v>
+        <v>205</v>
       </c>
       <c r="N2">
         <v>15</v>
       </c>
       <c r="O2">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="P2">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="Q2">
-        <v>528</v>
+        <v>586</v>
       </c>
     </row>
     <row r="3" spans="1:17">
@@ -996,28 +996,28 @@
         <v>8</v>
       </c>
       <c r="C3">
-        <v>163</v>
+        <v>174</v>
       </c>
       <c r="D3">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="E3">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F3">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="G3">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="H3">
         <v>20</v>
       </c>
       <c r="I3">
+        <v>56</v>
+      </c>
+      <c r="J3">
         <v>52</v>
-      </c>
-      <c r="J3">
-        <v>50</v>
       </c>
       <c r="K3" t="s">
         <v>26</v>
@@ -1029,7 +1029,7 @@
         <v>132</v>
       </c>
       <c r="N3">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="O3" t="s">
         <v>17</v>
@@ -1215,22 +1215,22 @@
         <v>41</v>
       </c>
       <c r="B2">
-        <v>84</v>
+        <v>91</v>
       </c>
       <c r="C2" t="s">
         <v>41</v>
       </c>
       <c r="D2">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="E2" t="s">
         <v>17</v>
       </c>
       <c r="F2">
-        <v>218</v>
+        <v>222</v>
       </c>
       <c r="G2">
-        <v>205</v>
+        <v>209</v>
       </c>
       <c r="H2">
         <v>10</v>
@@ -1239,10 +1239,10 @@
         <v>6</v>
       </c>
       <c r="J2">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="K2">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="L2">
         <v>75</v>
@@ -1268,7 +1268,7 @@
         <v>42</v>
       </c>
       <c r="B3">
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="C3" t="s">
         <v>43</v>
@@ -1368,7 +1368,7 @@
         <v>7</v>
       </c>
       <c r="D3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E3">
         <v>8</v>

--- a/Base/Teams/Chargers/2021 Team Data.xlsx
+++ b/Base/Teams/Chargers/2021 Team Data.xlsx
@@ -35,16 +35,16 @@
     <t>P</t>
   </si>
   <si>
-    <t>11 13 3 3 1 7 -3 1 4 3 2 0 7 2 2 0 14 5 2 3 0 4 1 2 9 -3 20 -1 16 1 3 1 5 1 0 5 1 9 5 3 9 3 7 4 1 4 -1 9 1 2 3 3 5 -2 -1 5 9 1 -1 11 6 9 6 0 8 7 -1 18 -1 0 3 5 21 5 3 -3 8 2 11 6 4 8 0 2 2 4 1 7 6 9 1 6 11 20 4 3 -2 2 8 11 2 3 10 5 2 14 3 1 9 2 6 2 4 1 4 4 8 -1 4 2 5 2 10 -2 2 1 3 -2 6 3 5 3 10 75 3 3 1 9 3 2 28 4 2 2 3 0 3 1 3 7 3 0 2 2 0 9 -3 0 1 1 5 -1 1 14 8 10 2 1 0 16 5 4 5 1 0 4 3 17 1 1 3 5 5 9 2 6 3 3 5 4 2 3 7 6 10 4 0 18 2 18 2 12 6 -2 13 4 5 2 5 36 5 1 1 7 5 6 3 3 5 1 5 -1 2 13 5 2 1 13 2 0 -1 6 7 3 9 5 0 2 5 4 1 15 1 5 6 1 3 -4 7 2 0 14 9 5 5 9 1 1 0 2 17 2 3 3 12 4 -1 6 4 8 2 4 2 6 1 3 2 10 9 0 3 2 0 2 4 4 15 3 15 4 3 6 2 4 1 2 7 0 9 4 6 8 4 3 1 8 2 4 8 22 1 1 3 0 2 2 3 2 6 15 2 2 2 1 2 3 5 15 3 0 17 9 4 13 -1 0 2 8 1 7 1 2 9 4 9 -1 2 14 3 2 6 4 3 1 6 9 6 0 2 0 -1 1 2 -4 2 7 4 5 -4 2 5 7 2 4 1 3</t>
-  </si>
-  <si>
-    <t>10 6 9 11 -3 7 2 11 4 18 16 10 22 1 6 17 4 17 11 7 11 23 6 19 17 3 17 7 19 20 9 22 11 7 0 5 14 -2 12 9 27 12 14 8 -1 6 10 7 8 42 8 -2 5 7 16 8 20 4 2 15 30 14 0 4 3 8 8 11 19 4 20 8 6 16 5 12 7 21 11 5 0 20 43 15 6 16 4 5 4 22 7 7 4 3 5 5 11 34 0 10 2 9 4 7 13 9 14 9 15 4 4 18 6 8 22 72 8 -1 7 7 7 7 13 5 14 42 10 5 4 37 21 3 19 29 11 11 8 3 18 7 5 8 26 1 16 1 5 10 21 15 -1 5 4 5 10 6 12 41 6 1 13 5 5 9 11 11 15 14 7 6 18 11 14 24 19 12 9 17 23 9 23 2 12 15 3 1 4 11 9 16 15 19 49 8 8 -2 7 3 8 18 3 14 4 5 11 7 11 10 18 2 7 8 5 4 22 17 11 10 2 7 7 26 13 6 2 2 22 5 11 6 17 5 7 10 18 10 14 9 10 18 6 30 14 17 8 5 7 17 3 11 12 13 5 17 53 7 24 -2 10 5 9 13 6 18 14 12 9 11 13 17 8 8 4 2 7 13 18 34 9 5 -2 16 -1 10 -1 41 5 10 47 6 7 44 23 7 4 7 12 7 12 9 7 6 -3 1 18 33 2 15 7 5 11 9 -2 15 12 10 25 7 2 7 5 17 59 7 36 5 11 8 3 1 9 4 12 12 13 15 4 2 27 7 5 4 17 6 29 8 5 15 15 8 5 14 7 10 16 9 12 25 9 18 12 15 16 14 6 12 17 11 9 17 7 7 6 6 24 13 8 27 3 10 8 10 11 8 3 6 8 3 5 9 3 8 7 40 16 5 5 45 8 8</t>
-  </si>
-  <si>
-    <t>4 4 27 -3 2 3 6 -1 8 3 5 6 2 6 6 6 6 3 0 -2 0 6 4 5 2 5 9 1 10 1 1 3 5 -2 5 4 8 16 6 13 5 6 4 5 5 6 19 5 28 3 23 3 1 -1 5 4 3 3 4 12 10 4 11 7 8 7 3 4 7 5 14 10 4 2 3 8 4 2 18 2 12 7 5 7 4 -1 2 2 21 2 1 5 3 -1 5 4 0 2 2 10 1 2 0 6 2 1 3 20 13 -1 12 0 9 7 5 5 -5 1 8 6 2 6 -1 7 5 8 1 0 3 6 52 4 1 1 1 8 24 7 8 1 3 8 6 16 6 1 11 14 3 3 22 2 3 5 5 7 3 6 1 5 4 1 7 2 2 0 -3 5 7 3 0 9 -1 9 3 2 12 3 -1 3 4 1 8 5 6 5 6 3 7 4 7 5 2 6 10 4 6 5 4 -2 6 3 2 14 -1 6 3 2 0 1 0 1 1 2 3 0 3 8 18 4 2 5 4 2 1 4 6 8 5 4 5 3 5 6 2 3 10 2 2 3 3 0 5 2 12 2 1 10 2 4 6 0 11 5 3 -4 12 6 6 8 5 5 3 4 7 4 -3 5 -1 3 1 4 0 2 7 0 1 5 2 4 1 11 1 4 2 4 3 6 4 3 5 2 3 0 12 4 0 3 -2 1 12 2 10 2 4 2 4 2 -2 11 12 8 16 -1 9 1 2 2 6 6 2 2 0 3 0 7 4 3 8 4 4 3 0 2 2 7 1 -5 6 8 6 2 6 17 2 5 3 4 0 10 3 3 8 -3 5 10 7 8 4 4 2 0 7 -1 2 7 5 1 7 5 7 4 9 5 -3 13 8 5 8 6 8 7 5 11 9 7 0 5 0 -1 3 3 1 2 3 0 1 5 0 1 32 9 3 4 25 2 4 2 13 1 2 1 2 3 5 15 6 1 5 2 2 4 7 4 2 1 1 2 1 3 3 4 36 -2 14 3 6 7 -3 5 5 4 5 2 0 1 0 6 12 4 7 4 -4 -4 2 2 0 4 5 2 5</t>
-  </si>
-  <si>
-    <t>2 6 5 12 7 11 9 2 34 11 17 17 -2 4 6 7 6 20 7 17 12 10 13 5 16 10 34 4 13 -4 1 11 7 7 5 12 4 7 15 5 6 6 8 17 -1 5 15 28 7 6 11 12 8 10 2 6 23 18 10 5 5 7 11 8 4 3 12 5 21 7 0 15 8 8 5 10 9 18 3 51 5 5 4 9 22 31 12 7 42 1 2 5 16 9 6 8 13 11 -1 7 71 13 6 3 2 10 7 4 4 8 16 8 9 21 1 10 6 4 11 9 8 20 13 6 1 14 44 2 5 11 33 7 10 4 15 7 14 2 7 17 15 9 2 2 18 27 7 23 19 21 -6 19 4 28 14 6 -1 10 24 7 7 9 3 18 21 21 5 4 27 19 3 12 15 16 3 27 5 18 8 4 16 0 8 37 22 7 9 10 2 2 6 28 5 7 1 5 16 4 5 32 18 4 5 5 7 3 13 19 5 7 12 7 5 2 12 1 12 14 42 1 5 12 21 3 9 7 32 16 29 5 7 0 5 9 20 12 6 9 11 12 16 14 25 14 10 5 15 6 60 3 7 -2 1 17 3 9 6 18 10 1 8 24 12 14 5 9 20 11 12 -1 17 4 3 6 5 23 10 40 5 3 9 0 6 69 1 5 10 20 7 10 27 14 34 7 4 11 -4 11 4 14 5 36 6 41 18 12 9 6 27 -1 12 23 4 13 15 0 44 18 -1 24 8 35 7 9 5 11 6 2 16 7 34 5</t>
+    <t>11 13 3 3 1 7 -3 1 4 3 2 0 7 2 2 0 14 5 2 3 0 4 1 2 9 -3 20 -1 16 1 3 1 5 1 0 5 1 9 5 3 9 3 7 4 1 4 -1 9 1 2 3 3 5 -2 -1 5 9 1 -1 11 6 9 6 0 8 7 -1 18 -1 0 3 5 21 5 3 -3 8 2 11 6 4 8 0 2 2 4 1 7 6 9 1 6 11 20 4 3 -2 2 8 11 2 3 10 5 2 14 3 1 9 2 6 2 4 1 4 4 8 -1 4 2 5 2 10 -2 2 1 3 -2 6 3 5 3 10 75 3 3 1 9 3 2 28 4 2 2 3 0 3 1 3 7 3 0 2 2 0 9 -3 0 1 1 5 -1 1 14 8 10 2 1 0 16 5 4 5 1 0 4 3 17 1 1 3 5 5 9 2 6 3 3 5 4 2 3 7 6 10 4 0 18 2 18 2 12 6 -2 13 4 5 2 5 36 5 1 1 7 5 6 3 3 5 1 5 -1 2 13 5 2 1 13 2 0 -1 6 7 3 9 5 0 2 5 4 1 15 1 5 6 1 3 -4 7 2 0 14 9 5 5 9 1 1 0 2 17 2 3 3 12 4 -1 6 4 8 2 4 2 6 1 3 2 10 9 0 3 2 0 2 4 4 15 3 15 4 3 6 2 4 1 2 7 0 9 4 6 8 4 3 1 8 2 4 8 22 1 1 3 0 2 2 3 2 6 15 2 2 2 1 2 3 5 15 3 0 17 9 4 13 -1 0 2 8 1 7 1 2 9 4 9 -1 2 14 3 2 6 4 3 1 6 9 6 0 2 0 -1 1 2 -4 2 7 4 5 -4 2 5 7 2 4 1 3 3 1 9 2 2 14 1 2 14 11 8 6 -1 2 -3 6 0 7 -1 4</t>
+  </si>
+  <si>
+    <t>10 6 9 11 -3 7 2 11 4 18 16 10 22 1 6 17 4 17 11 7 11 23 6 19 17 3 17 7 19 20 9 22 11 7 0 5 14 -2 12 9 27 12 14 8 -1 6 10 7 8 42 8 -2 5 7 16 8 20 4 2 15 30 14 0 4 3 8 8 11 19 4 20 8 6 16 5 12 7 21 11 5 0 20 43 15 6 16 4 5 4 22 7 7 4 3 5 5 11 34 0 10 2 9 4 7 13 9 14 9 15 4 4 18 6 8 22 72 8 -1 7 7 7 7 13 5 14 42 10 5 4 37 21 3 19 29 11 11 8 3 18 7 5 8 26 1 16 1 5 10 21 15 -1 5 4 5 10 6 12 41 6 1 13 5 5 9 11 11 15 14 7 6 18 11 14 24 19 12 9 17 23 9 23 2 12 15 3 1 4 11 9 16 15 19 49 8 8 -2 7 3 8 18 3 14 4 5 11 7 11 10 18 2 7 8 5 4 22 17 11 10 2 7 7 26 13 6 2 2 22 5 11 6 17 5 7 10 18 10 14 9 10 18 6 30 14 17 8 5 7 17 3 11 12 13 5 17 53 7 24 -2 10 5 9 13 6 18 14 12 9 11 13 17 8 8 4 2 7 13 18 34 9 5 -2 16 -1 10 -1 41 5 10 47 6 7 44 23 7 4 7 12 7 12 9 7 6 -3 1 18 33 2 15 7 5 11 9 -2 15 12 10 25 7 2 7 5 17 59 7 36 5 11 8 3 1 9 4 12 12 13 15 4 2 27 7 5 4 17 6 29 8 5 15 15 8 5 14 7 10 16 9 12 25 9 18 12 15 16 14 6 12 17 11 9 17 7 7 6 6 24 13 8 27 3 10 8 10 11 8 3 6 8 3 5 9 3 8 7 40 16 5 5 45 8 8 3 5 5 14 19 6 10 6 6 13 14 7 42 2 3 6 5 9 18 1 6 14 4 14 10 17 12 6</t>
+  </si>
+  <si>
+    <t>4 4 27 -3 2 3 6 -1 8 3 5 6 2 6 6 6 6 3 0 -2 0 6 4 5 2 5 9 1 10 1 1 3 5 -2 5 4 8 16 6 13 5 6 4 5 5 6 19 5 28 3 23 3 1 -1 5 4 3 3 4 12 10 4 11 7 8 7 3 4 7 5 14 10 4 2 3 8 4 2 18 2 12 7 5 7 4 -1 2 2 21 2 1 5 3 -1 5 4 0 2 2 10 1 2 0 6 2 1 3 20 13 -1 12 0 9 7 5 5 -5 1 8 6 2 6 -1 7 5 8 1 0 3 6 52 4 1 1 1 8 24 7 8 1 3 8 6 16 6 1 11 14 3 3 22 2 3 5 5 7 3 6 1 5 4 1 7 2 2 0 -3 5 7 3 0 9 -1 9 3 2 12 3 -1 3 4 1 8 5 6 5 6 3 7 4 7 5 2 6 10 4 6 5 4 -2 6 3 2 14 -1 6 3 2 0 1 0 1 1 2 3 0 3 8 18 4 2 5 4 2 1 4 6 8 5 4 5 3 5 6 2 3 10 2 2 3 3 0 5 2 12 2 1 10 2 4 6 0 11 5 3 -4 12 6 6 8 5 5 3 4 7 4 -3 5 -1 3 1 4 0 2 7 0 1 5 2 4 1 11 1 4 2 4 3 6 4 3 5 2 3 0 12 4 0 3 -2 1 12 2 10 2 4 2 4 2 -2 11 12 8 16 -1 9 1 2 2 6 6 2 2 0 3 0 7 4 3 8 4 4 3 0 2 2 7 1 -5 6 8 6 2 6 17 2 5 3 4 0 10 3 3 8 -3 5 10 7 8 4 4 2 0 7 -1 2 7 5 1 7 5 7 4 9 5 -3 13 8 5 8 6 8 7 5 11 9 7 0 5 0 -1 3 3 1 2 3 0 1 5 0 1 32 9 3 4 25 2 4 2 13 1 2 1 2 3 5 15 6 1 5 2 2 4 7 4 2 1 1 2 1 3 3 4 36 -2 14 3 6 7 -3 5 5 4 5 2 0 1 0 6 12 4 7 4 -4 -4 2 2 0 4 5 2 5 8 0 0 -3 14 -2 3 1 1 -2 0 23 1 2 7 5 3 15 2 1 0 11 7 5 8 -4 28 18 0 7 -1 7 10</t>
+  </si>
+  <si>
+    <t>2 6 5 12 7 11 9 2 34 11 17 17 -2 4 6 7 6 20 7 17 12 10 13 5 16 10 34 4 13 -4 1 11 7 7 5 12 4 7 15 5 6 6 8 17 -1 5 15 28 7 6 11 12 8 10 2 6 23 18 10 5 5 7 11 8 4 3 12 5 21 7 0 15 8 8 5 10 9 18 3 51 5 5 4 9 22 31 12 7 42 1 2 5 16 9 6 8 13 11 -1 7 71 13 6 3 2 10 7 4 4 8 16 8 9 21 1 10 6 4 11 9 8 20 13 6 1 14 44 2 5 11 33 7 10 4 15 7 14 2 7 17 15 9 2 2 18 27 7 23 19 21 -6 19 4 28 14 6 -1 10 24 7 7 9 3 18 21 21 5 4 27 19 3 12 15 16 3 27 5 18 8 4 16 0 8 37 22 7 9 10 2 2 6 28 5 7 1 5 16 4 5 32 18 4 5 5 7 3 13 19 5 7 12 7 5 2 12 1 12 14 42 1 5 12 21 3 9 7 32 16 29 5 7 0 5 9 20 12 6 9 11 12 16 14 25 14 10 5 15 6 60 3 7 -2 1 17 3 9 6 18 10 1 8 24 12 14 5 9 20 11 12 -1 17 4 3 6 5 23 10 40 5 3 9 0 6 69 1 5 10 20 7 10 27 14 34 7 4 11 -4 11 4 14 5 36 6 41 18 12 9 6 27 -1 12 23 4 13 15 0 44 18 -1 24 8 35 7 9 5 11 6 2 16 7 34 5 8 44 0 4 12 12 18 4 4 30 6 2 -1 8 0 7 17 -5 11</t>
   </si>
   <si>
     <t>1N11+</t>
@@ -161,22 +161,22 @@
     <t>RM</t>
   </si>
   <si>
-    <t>55 64 64 67 65 66 67 60 64 66 65 67 69 66 59 62 61 64 69 62 67 62 64 59 65 49 66 63 62 67 62 69 37</t>
-  </si>
-  <si>
-    <t>16 31 18 24 23 24 30 25 15 31 22 30 24 28 16 11 23 47 26 24 17 19 23 30 33 7 17 10 25 17 17 19 0</t>
-  </si>
-  <si>
-    <t>19 23 17 20 24 11 14 13 15 16 16 18 16 36 10 17 25 29 19 29 39 14 23 22 48 24 27 0 29 75 17 23 17 27 21 47 1</t>
-  </si>
-  <si>
-    <t>47 47 55 24 40 53 48 58 35 39 32 63 55 41 37 69 53 57 46 52 50 49 41 50 39 59 32 35 59 57 50 48 43 45 39 49 45 36 38 33 7 41 25 48</t>
-  </si>
-  <si>
-    <t>14 8 17 0 0 7 0 17 0 5 6 0 9 8 0 14 13 17 0 21 22 10 0 27 0 45 0 0 7 17 14 8 0 5 0 5 0 0 8 0 0 8 0 4</t>
-  </si>
-  <si>
-    <t>0 0 0 0 0 0 0 0 0 0 1 4</t>
+    <t>55 64 64 67 65 66 67 60 64 66 65 67 69 66 59 62 61 64 69 62 67 62 64 59 65 49 66 63 62 67 62 69 37 50 59</t>
+  </si>
+  <si>
+    <t>16 31 18 24 23 24 30 25 15 31 22 30 24 28 16 11 23 47 26 24 17 19 23 30 33 7 17 10 25 17 17 19 0 18 22</t>
+  </si>
+  <si>
+    <t>19 23 17 20 24 11 14 13 15 16 16 18 16 36 10 17 25 29 19 29 39 14 23 22 48 24 27 0 29 75 17 23 17 27 21 47 1 24 23</t>
+  </si>
+  <si>
+    <t>47 47 55 24 40 53 48 58 35 39 32 63 55 41 37 69 53 57 46 52 50 49 41 50 39 59 32 35 59 57 50 48 43 45 39 49 45 36 38 33 7 41 25 48 55 51 56</t>
+  </si>
+  <si>
+    <t>14 8 17 0 0 7 0 17 0 5 6 0 9 8 0 14 13 17 0 21 22 10 0 27 0 45 0 0 7 17 14 8 0 5 0 5 0 0 8 0 0 8 0 4 10 9 13</t>
+  </si>
+  <si>
+    <t>0 0 0 0 0 0 0 0 0 0 1 4 4 0 0 11</t>
   </si>
   <si>
     <t>INT</t>
@@ -668,7 +668,7 @@
         <v>1</v>
       </c>
       <c r="C2">
-        <v>193</v>
+        <v>207</v>
       </c>
       <c r="D2">
         <v>17</v>
@@ -677,10 +677,10 @@
         <v>6</v>
       </c>
       <c r="F2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G2">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="H2">
         <v>4</v>
@@ -689,7 +689,7 @@
         <v>7</v>
       </c>
       <c r="J2">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="K2" t="s">
         <v>25</v>
@@ -701,13 +701,13 @@
         <v>217</v>
       </c>
       <c r="N2">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="O2">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="P2">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="Q2">
         <v>593</v>
@@ -718,40 +718,40 @@
         <v>18</v>
       </c>
       <c r="B3">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C3">
-        <v>197</v>
+        <v>216</v>
       </c>
       <c r="D3">
         <v>6</v>
       </c>
       <c r="E3">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="F3">
-        <v>109</v>
+        <v>125</v>
       </c>
       <c r="G3">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="H3">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="I3">
-        <v>58</v>
+        <v>67</v>
       </c>
       <c r="J3">
-        <v>65</v>
+        <v>71</v>
       </c>
       <c r="K3" t="s">
         <v>26</v>
       </c>
       <c r="L3">
-        <v>275</v>
+        <v>339</v>
       </c>
       <c r="M3">
-        <v>192</v>
+        <v>226</v>
       </c>
       <c r="N3">
         <v>15</v>
@@ -763,7 +763,7 @@
         <v>17</v>
       </c>
       <c r="Q3">
-        <v>440</v>
+        <v>531</v>
       </c>
     </row>
   </sheetData>
@@ -943,28 +943,28 @@
         <v>4</v>
       </c>
       <c r="C2">
-        <v>222</v>
+        <v>239</v>
       </c>
       <c r="D2">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="E2">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="F2">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="G2">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="H2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I2">
         <v>8</v>
       </c>
       <c r="J2">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="K2" t="s">
         <v>25</v>
@@ -976,13 +976,13 @@
         <v>205</v>
       </c>
       <c r="N2">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="O2">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="P2">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="Q2">
         <v>586</v>
@@ -996,37 +996,37 @@
         <v>8</v>
       </c>
       <c r="C3">
-        <v>174</v>
+        <v>184</v>
       </c>
       <c r="D3">
         <v>6</v>
       </c>
       <c r="E3">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F3">
-        <v>92</v>
+        <v>102</v>
       </c>
       <c r="G3">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="H3">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="I3">
+        <v>63</v>
+      </c>
+      <c r="J3">
         <v>56</v>
-      </c>
-      <c r="J3">
-        <v>52</v>
       </c>
       <c r="K3" t="s">
         <v>26</v>
       </c>
       <c r="L3">
-        <v>201</v>
+        <v>237</v>
       </c>
       <c r="M3">
-        <v>132</v>
+        <v>152</v>
       </c>
       <c r="N3">
         <v>17</v>
@@ -1038,7 +1038,7 @@
         <v>17</v>
       </c>
       <c r="Q3">
-        <v>452</v>
+        <v>532</v>
       </c>
     </row>
   </sheetData>
@@ -1215,28 +1215,28 @@
         <v>41</v>
       </c>
       <c r="B2">
-        <v>91</v>
+        <v>97</v>
       </c>
       <c r="C2" t="s">
         <v>41</v>
       </c>
       <c r="D2">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="E2" t="s">
         <v>17</v>
       </c>
       <c r="F2">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="G2">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="H2">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="I2">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="J2">
         <v>109</v>
@@ -1245,13 +1245,13 @@
         <v>104</v>
       </c>
       <c r="L2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="M2">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="N2">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="O2">
         <v>15</v>
@@ -1268,7 +1268,7 @@
         <v>42</v>
       </c>
       <c r="B3">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="C3" t="s">
         <v>43</v>
@@ -1362,7 +1362,7 @@
         <v>26</v>
       </c>
       <c r="B3">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C3">
         <v>7</v>
@@ -1371,7 +1371,7 @@
         <v>3</v>
       </c>
       <c r="E3">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -1403,13 +1403,13 @@
         <v>56</v>
       </c>
       <c r="B2">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C2" t="s">
         <v>60</v>
       </c>
       <c r="D2">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -1417,13 +1417,13 @@
         <v>57</v>
       </c>
       <c r="B3">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C3" t="s">
         <v>57</v>
       </c>
       <c r="D3">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -1437,7 +1437,7 @@
         <v>58</v>
       </c>
       <c r="D4">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="5" spans="1:4">
